--- a/Project_python/ref/41467_2019_14108_MOESM2_ESM.xlsx
+++ b/Project_python/ref/41467_2019_14108_MOESM2_ESM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\OneDrive - UPV\TFM\Repositories\NLP-SDGs_Classificator\Project_python\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87B785-AA42-4E03-B02D-083BAFF73765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="27000" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3041,9 +3041,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3240,15 +3237,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3290,6 +3278,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3610,56 +3610,56 @@
   </sheetPr>
   <dimension ref="A1:AN391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76" style="72" customWidth="1"/>
-    <col min="6" max="6" width="78.85546875" style="72" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="17" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76" style="71" customWidth="1"/>
+    <col min="6" max="6" width="78.85546875" style="71" customWidth="1"/>
     <col min="7" max="41" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="91" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="91" t="s">
+      <c r="C1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="94" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:40" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -3682,14 +3682,14 @@
       <c r="AN3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="1:40" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -3707,7 +3707,7 @@
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
@@ -3731,7 +3731,7 @@
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="75" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2"/>
@@ -3753,7 +3753,7 @@
       <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="75" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>1</v>
       </c>
       <c r="D11" s="16">
@@ -3839,21 +3839,21 @@
       <c r="E11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="101" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:40" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3862,14 +3862,14 @@
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="2"/>
@@ -3885,14 +3885,14 @@
       <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="73" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2"/>
@@ -3906,16 +3906,16 @@
       <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="22">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="73" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="2"/>
@@ -3930,14 +3930,14 @@
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>1</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="73" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="2"/>
@@ -3957,10 +3957,10 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -3971,16 +3971,16 @@
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="22">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="73" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="2"/>
@@ -3998,10 +3998,10 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -4012,14 +4012,14 @@
       <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>1</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="73" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="2"/>
@@ -4027,14 +4027,14 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -4047,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="2"/>
@@ -4081,10 +4081,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="2"/>
@@ -4110,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="73" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="2"/>
@@ -4140,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2"/>
@@ -4176,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="73" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="2"/>
@@ -4200,10 +4200,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="2"/>
@@ -4231,10 +4231,10 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
@@ -4247,10 +4247,10 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
@@ -4267,10 +4267,10 @@
       <c r="D30" s="11">
         <v>1</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="73" t="s">
         <v>77</v>
       </c>
       <c r="G30" s="2"/>
@@ -4293,10 +4293,10 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
@@ -4311,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="73" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="2"/>
@@ -4329,10 +4329,10 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
@@ -4343,14 +4343,14 @@
       <c r="B34" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>1</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="76" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="2"/>
@@ -4358,14 +4358,14 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
     </row>
     <row r="36" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -4380,10 +4380,10 @@
       <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="72" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="2"/>
@@ -4402,10 +4402,10 @@
       <c r="D37" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="72" t="s">
         <v>96</v>
       </c>
       <c r="G37" s="2"/>
@@ -4424,10 +4424,10 @@
       <c r="D38" s="11">
         <v>1</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="73" t="s">
         <v>99</v>
       </c>
       <c r="G38" s="2"/>
@@ -4446,10 +4446,10 @@
       <c r="D39" s="11">
         <v>1</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="73" t="s">
         <v>102</v>
       </c>
       <c r="G39" s="2"/>
@@ -4468,10 +4468,10 @@
       <c r="D40" s="11">
         <v>1</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="73" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="2"/>
@@ -4490,10 +4490,10 @@
       <c r="D41" s="11">
         <v>1</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="73" t="s">
         <v>102</v>
       </c>
       <c r="G41" s="2"/>
@@ -4510,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="73" t="s">
         <v>110</v>
       </c>
       <c r="G42" s="2"/>
@@ -4530,10 +4530,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="73" t="s">
         <v>114</v>
       </c>
       <c r="G43" s="2"/>
@@ -4550,10 +4550,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="73" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="2"/>
@@ -4566,30 +4566,30 @@
       <c r="B45" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>1</v>
       </c>
       <c r="D45" s="16">
         <v>1</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="76" t="s">
         <v>122</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="84"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:9" ht="306" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -4598,16 +4598,16 @@
       <c r="B47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="19">
-        <v>1</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="28">
+        <v>1</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="73" t="s">
+      <c r="F47" s="72" t="s">
         <v>126</v>
       </c>
       <c r="G47" s="2"/>
@@ -4620,14 +4620,14 @@
       <c r="B48" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <v>1</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="73" t="s">
         <v>129</v>
       </c>
       <c r="G48" s="2"/>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
@@ -4660,10 +4660,10 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
@@ -4678,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="73" t="s">
         <v>135</v>
       </c>
       <c r="G51" s="2"/>
@@ -4700,10 +4700,10 @@
       <c r="D52" s="11">
         <v>1</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="73" t="s">
         <v>138</v>
       </c>
       <c r="G52" s="2"/>
@@ -4718,10 +4718,10 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
@@ -4738,10 +4738,10 @@
       <c r="D54" s="11">
         <v>1</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="74" t="s">
+      <c r="F54" s="73" t="s">
         <v>144</v>
       </c>
       <c r="G54" s="2"/>
@@ -4754,24 +4754,24 @@
       <c r="B55" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="28"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="84"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
     </row>
     <row r="57" spans="1:11" ht="189" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -4786,10 +4786,10 @@
       <c r="D57" s="6">
         <v>1</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F57" s="73" t="s">
+      <c r="F57" s="72" t="s">
         <v>150</v>
       </c>
       <c r="G57" s="2"/>
@@ -4809,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="77" t="s">
         <v>153</v>
       </c>
       <c r="G58" s="2"/>
@@ -4830,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="74" t="s">
+      <c r="F59" s="73" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="2"/>
@@ -4854,10 +4854,10 @@
       <c r="D60" s="11">
         <v>1</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="72" t="s">
         <v>150</v>
       </c>
       <c r="G60" s="2"/>
@@ -4879,10 +4879,10 @@
       <c r="D61" s="11">
         <v>1</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="74" t="s">
+      <c r="F61" s="73" t="s">
         <v>161</v>
       </c>
       <c r="G61" s="2"/>
@@ -4901,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="73" t="s">
         <v>164</v>
       </c>
       <c r="G62" s="2"/>
@@ -4926,10 +4926,10 @@
       <c r="D63" s="11">
         <v>1</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F63" s="74" t="s">
+      <c r="F63" s="73" t="s">
         <v>168</v>
       </c>
       <c r="G63" s="2"/>
@@ -4949,10 +4949,10 @@
       <c r="D64" s="11">
         <v>1</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="73" t="s">
         <v>172</v>
       </c>
       <c r="G64" s="2"/>
@@ -4961,14 +4961,14 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="87"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="100"/>
     </row>
     <row r="66" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
@@ -4983,10 +4983,10 @@
       <c r="D66" s="11">
         <v>1</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="74" t="s">
+      <c r="F66" s="73" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="2"/>
@@ -5009,10 +5009,10 @@
       <c r="D67" s="11">
         <v>1</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F67" s="74" t="s">
+      <c r="F67" s="73" t="s">
         <v>179</v>
       </c>
       <c r="G67" s="2"/>
@@ -5032,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F68" s="74" t="s">
+      <c r="F68" s="73" t="s">
         <v>182</v>
       </c>
       <c r="G68" s="2"/>
@@ -5054,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F69" s="74" t="s">
+      <c r="F69" s="73" t="s">
         <v>186</v>
       </c>
       <c r="G69" s="2"/>
@@ -5072,14 +5072,14 @@
       <c r="B70" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="27">
         <v>1</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F70" s="79" t="s">
+      <c r="F70" s="78" t="s">
         <v>190</v>
       </c>
       <c r="G70" s="2"/>
@@ -5089,14 +5089,14 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="84"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="83"/>
     </row>
     <row r="72" spans="1:14" ht="189" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -5105,16 +5105,16 @@
       <c r="B72" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="36">
-        <v>1</v>
-      </c>
-      <c r="D72" s="37">
-        <v>1</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="C72" s="35">
+        <v>1</v>
+      </c>
+      <c r="D72" s="36">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="F72" s="72" t="s">
         <v>194</v>
       </c>
       <c r="G72" s="2"/>
@@ -5130,16 +5130,16 @@
       <c r="B73" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="37">
         <v>1</v>
       </c>
       <c r="D73" s="11">
         <v>1</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F73" s="74" t="s">
+      <c r="F73" s="73" t="s">
         <v>197</v>
       </c>
       <c r="G73" s="2"/>
@@ -5161,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="41" t="s">
+      <c r="F74" s="40" t="s">
         <v>200</v>
       </c>
       <c r="G74" s="2"/>
@@ -5178,14 +5178,14 @@
       <c r="B75" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="38">
         <v>1</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="F75" s="41" t="s">
+      <c r="F75" s="40" t="s">
         <v>203</v>
       </c>
       <c r="G75" s="2"/>
@@ -5199,16 +5199,16 @@
       <c r="B76" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="39">
-        <v>1</v>
-      </c>
-      <c r="D76" s="40">
-        <v>1</v>
-      </c>
-      <c r="E76" s="26" t="s">
+      <c r="C76" s="38">
+        <v>1</v>
+      </c>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F76" s="74" t="s">
+      <c r="F76" s="73" t="s">
         <v>206</v>
       </c>
       <c r="G76" s="2"/>
@@ -5233,10 +5233,10 @@
       <c r="D77" s="11">
         <v>1</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="41"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
@@ -5251,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F78" s="74" t="s">
+      <c r="F78" s="73" t="s">
         <v>211</v>
       </c>
       <c r="G78" s="2"/>
@@ -5273,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="22" t="s">
         <v>211</v>
       </c>
       <c r="G79" s="2"/>
@@ -5295,17 +5295,17 @@
         <v>1</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="F80" s="74" t="s">
+      <c r="F80" s="73" t="s">
         <v>216</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="42">
+      <c r="A81" s="41">
         <v>8.1</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -5315,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F81" s="74" t="s">
+      <c r="F81" s="73" t="s">
         <v>219</v>
       </c>
       <c r="G81" s="2"/>
@@ -5334,10 +5334,10 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="23"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
@@ -5348,26 +5348,26 @@
       <c r="B83" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="27">
         <v>1</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="F83" s="34"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="84"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="83"/>
     </row>
     <row r="85" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -5380,13 +5380,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="6"/>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="F85" s="80" t="s">
+      <c r="F85" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5402,10 +5402,10 @@
       <c r="D86" s="11">
         <v>1</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F86" s="79" t="s">
+      <c r="F86" s="78" t="s">
         <v>231</v>
       </c>
       <c r="G86" s="2"/>
@@ -5424,10 +5424,10 @@
       <c r="D87" s="11">
         <v>1</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="79" t="s">
+      <c r="F87" s="78" t="s">
         <v>234</v>
       </c>
       <c r="G87" s="2"/>
@@ -5444,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F88" s="79" t="s">
+      <c r="F88" s="78" t="s">
         <v>237</v>
       </c>
       <c r="G88" s="2"/>
@@ -5464,10 +5464,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="40" t="s">
         <v>240</v>
       </c>
       <c r="G89" s="2"/>
@@ -5484,13 +5484,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F90" s="79" t="s">
+      <c r="F90" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
@@ -5506,10 +5506,10 @@
       <c r="D91" s="11">
         <v>1</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F91" s="79" t="s">
+      <c r="F91" s="78" t="s">
         <v>247</v>
       </c>
       <c r="G91" s="2"/>
@@ -5522,30 +5522,30 @@
       <c r="B92" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="27">
         <v>1</v>
       </c>
       <c r="D92" s="16">
         <v>1</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="F92" s="81" t="s">
+      <c r="F92" s="80" t="s">
         <v>251</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="84"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="83"/>
     </row>
     <row r="94" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
@@ -5560,10 +5560,10 @@
       <c r="D94" s="6">
         <v>1</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="F94" s="73" t="s">
+      <c r="F94" s="72" t="s">
         <v>255</v>
       </c>
       <c r="G94" s="2"/>
@@ -5582,10 +5582,10 @@
       <c r="D95" s="11">
         <v>1</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="E95" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F95" s="74" t="s">
+      <c r="F95" s="73" t="s">
         <v>258</v>
       </c>
       <c r="G95" s="2"/>
@@ -5604,10 +5604,10 @@
       <c r="D96" s="11">
         <v>1</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="F96" s="74" t="s">
+      <c r="F96" s="73" t="s">
         <v>261</v>
       </c>
       <c r="G96" s="2"/>
@@ -5622,10 +5622,10 @@
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="33" t="s">
+      <c r="E97" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -5640,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="F98" s="74" t="s">
+      <c r="F98" s="73" t="s">
         <v>265</v>
       </c>
       <c r="G98" s="2"/>
@@ -5662,10 +5662,10 @@
       <c r="D99" s="11">
         <v>1</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="F99" s="74" t="s">
+      <c r="F99" s="73" t="s">
         <v>268</v>
       </c>
       <c r="G99" s="2"/>
@@ -5684,10 +5684,10 @@
       <c r="D100" s="11">
         <v>1</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="74" t="s">
+      <c r="F100" s="73" t="s">
         <v>271</v>
       </c>
       <c r="G100" s="2"/>
@@ -5706,10 +5706,10 @@
       <c r="D101" s="11">
         <v>1</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F101" s="79" t="s">
+      <c r="F101" s="78" t="s">
         <v>499</v>
       </c>
       <c r="G101" s="2"/>
@@ -5728,10 +5728,10 @@
       <c r="D102" s="11">
         <v>1</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F102" s="79" t="s">
+      <c r="F102" s="78" t="s">
         <v>275</v>
       </c>
       <c r="G102" s="2"/>
@@ -5744,28 +5744,28 @@
       <c r="B103" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C103" s="27">
         <v>1</v>
       </c>
       <c r="D103" s="16"/>
-      <c r="E103" s="47" t="s">
+      <c r="E103" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="77" t="s">
+      <c r="F103" s="76" t="s">
         <v>282</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="B104" s="83"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="84"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="83"/>
     </row>
     <row r="105" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -5778,10 +5778,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="6"/>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F105" s="73" t="s">
+      <c r="F105" s="72" t="s">
         <v>286</v>
       </c>
       <c r="G105" s="2"/>
@@ -5800,10 +5800,10 @@
       <c r="D106" s="11">
         <v>1</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="26" t="s">
         <v>289</v>
       </c>
       <c r="G106" s="2"/>
@@ -5822,10 +5822,10 @@
       <c r="D107" s="11">
         <v>1</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="F107" s="74" t="s">
+      <c r="F107" s="73" t="s">
         <v>292</v>
       </c>
       <c r="G107" s="2"/>
@@ -5842,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="F108" s="74" t="s">
+      <c r="F108" s="73" t="s">
         <v>295</v>
       </c>
       <c r="G108" s="2"/>
@@ -5862,10 +5862,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="F109" s="74" t="s">
+      <c r="F109" s="73" t="s">
         <v>298</v>
       </c>
       <c r="G109" s="2"/>
@@ -5882,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="24" t="s">
         <v>301</v>
       </c>
       <c r="G110" s="2"/>
@@ -5902,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="F111" s="74" t="s">
+      <c r="F111" s="73" t="s">
         <v>304</v>
       </c>
       <c r="G111" s="2"/>
@@ -5922,10 +5922,10 @@
         <v>1</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F112" s="74" t="s">
+      <c r="F112" s="73" t="s">
         <v>308</v>
       </c>
       <c r="G112" s="2"/>
@@ -5942,10 +5942,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="73" t="s">
         <v>312</v>
       </c>
       <c r="G113" s="2"/>
@@ -5958,28 +5958,28 @@
       <c r="B114" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="27">
         <v>1</v>
       </c>
       <c r="D114" s="16"/>
-      <c r="E114" s="47" t="s">
+      <c r="E114" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="33" t="s">
         <v>316</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="82" t="s">
+      <c r="A115" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="84"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="83"/>
     </row>
     <row r="116" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
@@ -5994,10 +5994,10 @@
       <c r="D116" s="6">
         <v>1</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="F116" s="77" t="s">
+      <c r="F116" s="76" t="s">
         <v>320</v>
       </c>
       <c r="G116" s="2"/>
@@ -6014,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="F117" s="79" t="s">
+      <c r="F117" s="78" t="s">
         <v>323</v>
       </c>
       <c r="G117" s="2"/>
@@ -6030,14 +6030,14 @@
       <c r="B118" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C118" s="39">
+      <c r="C118" s="38">
         <v>1</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="F118" s="79" t="s">
+      <c r="F118" s="78" t="s">
         <v>326</v>
       </c>
       <c r="G118" s="2"/>
@@ -6050,14 +6050,14 @@
       <c r="B119" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="38">
         <v>1</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="F119" s="79" t="s">
+      <c r="F119" s="78" t="s">
         <v>326</v>
       </c>
       <c r="G119" s="2"/>
@@ -6072,10 +6072,10 @@
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="F120" s="41"/>
+      <c r="F120" s="40"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
@@ -6092,10 +6092,10 @@
       <c r="D121" s="11">
         <v>1</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="F121" s="79" t="s">
+      <c r="F121" s="78" t="s">
         <v>333</v>
       </c>
       <c r="G121" s="2"/>
@@ -6111,13 +6111,13 @@
       <c r="C122" s="10">
         <v>1</v>
       </c>
-      <c r="D122" s="45">
-        <v>1</v>
-      </c>
-      <c r="E122" s="26" t="s">
+      <c r="D122" s="44">
+        <v>1</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="F122" s="79" t="s">
+      <c r="F122" s="78" t="s">
         <v>336</v>
       </c>
       <c r="G122" s="2"/>
@@ -6134,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F123" s="41"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
@@ -6152,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="79" t="s">
+      <c r="F124" s="78" t="s">
         <v>341</v>
       </c>
       <c r="G124" s="2"/>
@@ -6172,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="F125" s="79" t="s">
+      <c r="F125" s="78" t="s">
         <v>216</v>
       </c>
       <c r="G125" s="2"/>
@@ -6188,28 +6188,28 @@
       <c r="B126" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="C126" s="28">
+      <c r="C126" s="27">
         <v>1</v>
       </c>
       <c r="D126" s="16"/>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="F126" s="81" t="s">
+      <c r="F126" s="80" t="s">
         <v>348</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="B127" s="83"/>
-      <c r="C127" s="83"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="84"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="83"/>
     </row>
     <row r="128" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -6222,10 +6222,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="F128" s="73" t="s">
+      <c r="F128" s="72" t="s">
         <v>352</v>
       </c>
       <c r="G128" s="2"/>
@@ -6246,10 +6246,10 @@
       <c r="D129" s="11">
         <v>1</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="F129" s="73" t="s">
+      <c r="F129" s="72" t="s">
         <v>355</v>
       </c>
       <c r="G129" s="2"/>
@@ -6269,10 +6269,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F130" s="74" t="s">
+      <c r="F130" s="73" t="s">
         <v>358</v>
       </c>
       <c r="G130" s="2"/>
@@ -6289,10 +6289,10 @@
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="33" t="s">
+      <c r="E131" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F131" s="23"/>
+      <c r="F131" s="22"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
@@ -6303,14 +6303,14 @@
       <c r="B132" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C132" s="27">
         <v>1</v>
       </c>
       <c r="D132" s="16"/>
-      <c r="E132" s="47" t="s">
+      <c r="E132" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="F132" s="74" t="s">
+      <c r="F132" s="73" t="s">
         <v>358</v>
       </c>
       <c r="G132" s="2"/>
@@ -6319,14 +6319,14 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="88" t="s">
+      <c r="A133" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="90"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="86"/>
     </row>
     <row r="134" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
@@ -6339,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="6"/>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="F134" s="77" t="s">
+      <c r="F134" s="76" t="s">
         <v>367</v>
       </c>
       <c r="G134" s="2"/>
@@ -6363,10 +6363,10 @@
       <c r="D135" s="11">
         <v>1</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="F135" s="77" t="s">
+      <c r="F135" s="76" t="s">
         <v>370</v>
       </c>
       <c r="G135" s="2"/>
@@ -6387,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="F136" s="77" t="s">
+      <c r="F136" s="76" t="s">
         <v>373</v>
       </c>
       <c r="G136" s="2"/>
@@ -6409,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="41" t="s">
+      <c r="E137" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F137" s="74" t="s">
+      <c r="F137" s="73" t="s">
         <v>376</v>
       </c>
       <c r="G137" s="2"/>
@@ -6434,10 +6434,10 @@
       <c r="D138" s="11">
         <v>1</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="F138" s="74" t="s">
+      <c r="F138" s="73" t="s">
         <v>379</v>
       </c>
       <c r="G138" s="2"/>
@@ -6455,10 +6455,10 @@
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F139" s="23"/>
+      <c r="F139" s="22"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
@@ -6475,10 +6475,10 @@
       <c r="D140" s="11">
         <v>1</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="F140" s="74" t="s">
+      <c r="F140" s="73" t="s">
         <v>383</v>
       </c>
       <c r="G140" s="2"/>
@@ -6498,10 +6498,10 @@
         <v>1</v>
       </c>
       <c r="D141" s="11"/>
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="F141" s="79" t="s">
+      <c r="F141" s="78" t="s">
         <v>387</v>
       </c>
       <c r="G141" s="2"/>
@@ -6521,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="F142" s="74" t="s">
+      <c r="F142" s="73" t="s">
         <v>391</v>
       </c>
       <c r="G142" s="2"/>
@@ -6542,10 +6542,10 @@
         <v>1</v>
       </c>
       <c r="D143" s="11"/>
-      <c r="E143" s="46" t="s">
+      <c r="E143" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="F143" s="74" t="s">
+      <c r="F143" s="73" t="s">
         <v>395</v>
       </c>
       <c r="G143" s="2"/>
@@ -6555,14 +6555,14 @@
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="85" t="s">
+      <c r="A144" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="B144" s="86"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="87"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="99"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="100"/>
     </row>
     <row r="145" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
@@ -6575,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="11"/>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="F145" s="74" t="s">
+      <c r="F145" s="73" t="s">
         <v>399</v>
       </c>
       <c r="G145" s="2"/>
@@ -6599,10 +6599,10 @@
       <c r="D146" s="11">
         <v>1</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="F146" s="74" t="s">
+      <c r="F146" s="73" t="s">
         <v>402</v>
       </c>
       <c r="G146" s="2"/>
@@ -6621,10 +6621,10 @@
         <v>1</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="F147" s="74" t="s">
+      <c r="F147" s="73" t="s">
         <v>405</v>
       </c>
       <c r="G147" s="2"/>
@@ -6644,10 +6644,10 @@
       <c r="D148" s="11">
         <v>1</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="F148" s="26" t="s">
+      <c r="F148" s="25" t="s">
         <v>408</v>
       </c>
       <c r="G148" s="2"/>
@@ -6668,10 +6668,10 @@
       <c r="D149" s="11">
         <v>1</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="F149" s="74" t="s">
+      <c r="F149" s="73" t="s">
         <v>411</v>
       </c>
       <c r="G149" s="2"/>
@@ -6690,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="33" t="s">
+      <c r="E150" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="F150" s="23" t="s">
+      <c r="F150" s="22" t="s">
         <v>414</v>
       </c>
       <c r="G150" s="2"/>
@@ -6713,10 +6713,10 @@
       <c r="D151" s="11">
         <v>1</v>
       </c>
-      <c r="E151" s="33" t="s">
+      <c r="E151" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="F151" s="74" t="s">
+      <c r="F151" s="73" t="s">
         <v>417</v>
       </c>
       <c r="G151" s="2"/>
@@ -6733,10 +6733,10 @@
         <v>1</v>
       </c>
       <c r="D152" s="11"/>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="22" t="s">
         <v>420</v>
       </c>
       <c r="G152" s="2"/>
@@ -6754,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="F153" s="23" t="s">
+      <c r="F153" s="22" t="s">
         <v>423</v>
       </c>
       <c r="G153" s="2"/>
@@ -6776,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="33" t="s">
+      <c r="E154" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="F154" s="74" t="s">
+      <c r="F154" s="73" t="s">
         <v>427</v>
       </c>
       <c r="G154" s="2"/>
@@ -6799,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="47" t="s">
+      <c r="E155" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="F155" s="47" t="s">
+      <c r="F155" s="46" t="s">
         <v>431</v>
       </c>
       <c r="G155" s="2"/>
@@ -6816,14 +6816,14 @@
       <c r="B156" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C156" s="28">
+      <c r="C156" s="27">
         <v>1</v>
       </c>
       <c r="D156" s="16"/>
-      <c r="E156" s="47" t="s">
+      <c r="E156" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="F156" s="47" t="s">
+      <c r="F156" s="46" t="s">
         <v>435</v>
       </c>
       <c r="G156" s="2"/>
@@ -6832,14 +6832,14 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="81" t="s">
         <v>436</v>
       </c>
-      <c r="B157" s="83"/>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="84"/>
+      <c r="B157" s="82"/>
+      <c r="C157" s="82"/>
+      <c r="D157" s="82"/>
+      <c r="E157" s="82"/>
+      <c r="F157" s="83"/>
     </row>
     <row r="158" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
@@ -6854,10 +6854,10 @@
       <c r="D158" s="6">
         <v>1</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="F158" s="73" t="s">
+      <c r="F158" s="72" t="s">
         <v>439</v>
       </c>
       <c r="G158" s="2"/>
@@ -6876,10 +6876,10 @@
       <c r="D159" s="11">
         <v>1</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F159" s="74" t="s">
+      <c r="F159" s="73" t="s">
         <v>442</v>
       </c>
       <c r="G159" s="2"/>
@@ -6898,10 +6898,10 @@
       <c r="D160" s="11">
         <v>1</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="F160" s="74" t="s">
+      <c r="F160" s="73" t="s">
         <v>445</v>
       </c>
       <c r="G160" s="2"/>
@@ -6918,10 +6918,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="F161" s="74" t="s">
+      <c r="F161" s="73" t="s">
         <v>448</v>
       </c>
       <c r="G161" s="2"/>
@@ -6938,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="F162" s="23" t="s">
+      <c r="F162" s="22" t="s">
         <v>448</v>
       </c>
       <c r="G162" s="2"/>
@@ -6956,10 +6956,10 @@
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
-      <c r="E163" s="33" t="s">
+      <c r="E163" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F163" s="41"/>
+      <c r="F163" s="40"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
@@ -6974,10 +6974,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="48" t="s">
+      <c r="E164" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="74" t="s">
+      <c r="F164" s="73" t="s">
         <v>454</v>
       </c>
       <c r="G164" s="2"/>
@@ -6992,10 +6992,10 @@
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
-      <c r="E165" s="33" t="s">
+      <c r="E165" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F165" s="23"/>
+      <c r="F165" s="22"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
@@ -7008,15 +7008,15 @@
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="33" t="s">
+      <c r="E166" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F166" s="23"/>
+      <c r="F166" s="22"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A167" s="42">
+      <c r="A167" s="41">
         <v>16.100000000000001</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -7024,10 +7024,10 @@
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
-      <c r="E167" s="33" t="s">
+      <c r="E167" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F167" s="23"/>
+      <c r="F167" s="22"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
@@ -7042,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="F168" s="74" t="s">
+      <c r="F168" s="73" t="s">
         <v>461</v>
       </c>
       <c r="G168" s="2"/>
@@ -7058,24 +7058,24 @@
       <c r="B169" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="C169" s="28"/>
+      <c r="C169" s="27"/>
       <c r="D169" s="16"/>
-      <c r="E169" s="33" t="s">
+      <c r="E169" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F169" s="49"/>
+      <c r="F169" s="48"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="82" t="s">
+      <c r="A170" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="B170" s="83"/>
-      <c r="C170" s="83"/>
-      <c r="D170" s="83"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="84"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="82"/>
+      <c r="D170" s="82"/>
+      <c r="E170" s="82"/>
+      <c r="F170" s="83"/>
     </row>
     <row r="171" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
@@ -7088,10 +7088,10 @@
       <c r="D171" s="6">
         <v>1</v>
       </c>
-      <c r="E171" s="20" t="s">
+      <c r="E171" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F171" s="73" t="s">
+      <c r="F171" s="72" t="s">
         <v>467</v>
       </c>
       <c r="G171" s="2"/>
@@ -7106,10 +7106,10 @@
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
-      <c r="E172" s="33" t="s">
+      <c r="E172" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F172" s="23"/>
+      <c r="F172" s="22"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
@@ -7126,10 +7126,10 @@
       <c r="D173" s="11">
         <v>1</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="F173" s="74" t="s">
+      <c r="F173" s="73" t="s">
         <v>471</v>
       </c>
       <c r="G173" s="2"/>
@@ -7144,10 +7144,10 @@
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
-      <c r="E174" s="33" t="s">
+      <c r="E174" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F174" s="50"/>
+      <c r="F174" s="49"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
@@ -7160,10 +7160,10 @@
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
-      <c r="E175" s="33" t="s">
+      <c r="E175" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F175" s="23"/>
+      <c r="F175" s="22"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
@@ -7176,10 +7176,10 @@
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
-      <c r="E176" s="33" t="s">
+      <c r="E176" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F176" s="23"/>
+      <c r="F176" s="22"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
@@ -7192,10 +7192,10 @@
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="11"/>
-      <c r="E177" s="33" t="s">
+      <c r="E177" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F177" s="23"/>
+      <c r="F177" s="22"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
@@ -7208,10 +7208,10 @@
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
-      <c r="E178" s="33" t="s">
+      <c r="E178" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F178" s="23"/>
+      <c r="F178" s="22"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
@@ -7224,15 +7224,15 @@
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="33" t="s">
+      <c r="E179" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F179" s="23"/>
+      <c r="F179" s="22"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="42">
+      <c r="A180" s="41">
         <v>17.100000000000001</v>
       </c>
       <c r="B180" s="9" t="s">
@@ -7240,10 +7240,10 @@
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="11"/>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F180" s="23"/>
+      <c r="F180" s="22"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
@@ -7256,10 +7256,10 @@
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
-      <c r="E181" s="33" t="s">
+      <c r="E181" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="F181" s="23"/>
+      <c r="F181" s="22"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
@@ -7272,10 +7272,10 @@
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
-      <c r="E182" s="33" t="s">
+      <c r="E182" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F182" s="23"/>
+      <c r="F182" s="22"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
@@ -7288,10 +7288,10 @@
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F183" s="23"/>
+      <c r="F183" s="22"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
@@ -7306,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="11"/>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="F184" s="41" t="s">
+      <c r="F184" s="40" t="s">
         <v>485</v>
       </c>
       <c r="G184" s="2"/>
@@ -7324,10 +7324,10 @@
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
-      <c r="E185" s="33" t="s">
+      <c r="E185" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F185" s="41"/>
+      <c r="F185" s="40"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
@@ -7342,10 +7342,10 @@
         <v>1</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="F186" s="74" t="s">
+      <c r="F186" s="73" t="s">
         <v>489</v>
       </c>
       <c r="G186" s="2"/>
@@ -7362,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="D187" s="11"/>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="F187" s="74" t="s">
+      <c r="F187" s="73" t="s">
         <v>492</v>
       </c>
       <c r="G187" s="2"/>
@@ -7380,10 +7380,10 @@
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
-      <c r="E188" s="33" t="s">
+      <c r="E188" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F188" s="23"/>
+      <c r="F188" s="22"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
@@ -7398,1650 +7398,1641 @@
         <v>1</v>
       </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="33" t="s">
+      <c r="E189" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="F189" s="74" t="s">
+      <c r="F189" s="73" t="s">
         <v>496</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="69"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="53"/>
-      <c r="F190" s="54"/>
+      <c r="A190" s="50"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="68"/>
+      <c r="D190" s="69"/>
+      <c r="E190" s="52"/>
+      <c r="F190" s="53"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
-      <c r="B191" s="55" t="s">
+      <c r="A191" s="50"/>
+      <c r="B191" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="C191" s="56">
+      <c r="C191" s="55">
         <f t="shared" ref="C191:D191" si="0">SUM(C171:C189,C158:C169,C145:C156,C134:C143,C128:C132,C116:C126,C105:C114,C94:C103,C85:C92,C72:C83,C66:C70,C57:C64,C47:C55,C36:C45,C22:C34,C13:C20,C5:C11)</f>
         <v>134</v>
       </c>
-      <c r="D191" s="56">
+      <c r="D191" s="55">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E191" s="57"/>
-      <c r="F191" s="58"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="57"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="59"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="71"/>
-      <c r="E192" s="61"/>
-      <c r="F192" s="62"/>
+      <c r="A192" s="58"/>
+      <c r="B192" s="59"/>
+      <c r="C192" s="70"/>
+      <c r="D192" s="70"/>
+      <c r="E192" s="60"/>
+      <c r="F192" s="61"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="59"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="62"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="62"/>
+      <c r="E193" s="60"/>
+      <c r="F193" s="61"/>
     </row>
     <row r="194" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="59"/>
-      <c r="B194" s="64"/>
-      <c r="C194" s="71"/>
-      <c r="D194" s="71"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="62"/>
+      <c r="A194" s="58"/>
+      <c r="B194" s="63"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="70"/>
+      <c r="E194" s="60"/>
+      <c r="F194" s="61"/>
     </row>
     <row r="195" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="59"/>
-      <c r="B195" s="64"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="71"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="62"/>
+      <c r="A195" s="58"/>
+      <c r="B195" s="63"/>
+      <c r="C195" s="70"/>
+      <c r="D195" s="70"/>
+      <c r="E195" s="60"/>
+      <c r="F195" s="61"/>
     </row>
     <row r="196" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="59"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
-      <c r="E196" s="61"/>
-      <c r="F196" s="62"/>
+      <c r="A196" s="58"/>
+      <c r="B196" s="63"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="60"/>
+      <c r="F196" s="61"/>
     </row>
     <row r="197" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="59"/>
-      <c r="B197" s="64"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="62"/>
+      <c r="A197" s="58"/>
+      <c r="B197" s="63"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="60"/>
+      <c r="F197" s="61"/>
     </row>
     <row r="198" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="59"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="71"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="62"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="70"/>
+      <c r="D198" s="70"/>
+      <c r="E198" s="60"/>
+      <c r="F198" s="61"/>
     </row>
     <row r="199" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="59"/>
-      <c r="B199" s="64"/>
-      <c r="C199" s="71"/>
-      <c r="D199" s="71"/>
-      <c r="E199" s="61"/>
-      <c r="F199" s="62"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="63"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="60"/>
+      <c r="F199" s="61"/>
     </row>
     <row r="200" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="59"/>
-      <c r="B200" s="64"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="71"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="62"/>
+      <c r="A200" s="58"/>
+      <c r="B200" s="63"/>
+      <c r="C200" s="70"/>
+      <c r="D200" s="70"/>
+      <c r="E200" s="60"/>
+      <c r="F200" s="61"/>
     </row>
     <row r="201" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="59"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="71"/>
-      <c r="D201" s="71"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="62"/>
+      <c r="A201" s="58"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="70"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="61"/>
     </row>
     <row r="202" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="59"/>
-      <c r="B202" s="64"/>
-      <c r="C202" s="71"/>
-      <c r="D202" s="71"/>
-      <c r="E202" s="61"/>
-      <c r="F202" s="62"/>
+      <c r="A202" s="58"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="70"/>
+      <c r="D202" s="70"/>
+      <c r="E202" s="60"/>
+      <c r="F202" s="61"/>
     </row>
     <row r="203" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="59"/>
-      <c r="B203" s="64"/>
-      <c r="C203" s="71"/>
-      <c r="D203" s="71"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="62"/>
+      <c r="A203" s="58"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="70"/>
+      <c r="D203" s="70"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="61"/>
     </row>
     <row r="204" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A204" s="59"/>
-      <c r="B204" s="64"/>
-      <c r="C204" s="71"/>
-      <c r="D204" s="71"/>
-      <c r="E204" s="61"/>
-      <c r="F204" s="62"/>
+      <c r="A204" s="58"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="70"/>
+      <c r="D204" s="70"/>
+      <c r="E204" s="60"/>
+      <c r="F204" s="61"/>
     </row>
     <row r="205" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="59"/>
-      <c r="B205" s="64"/>
-      <c r="C205" s="71"/>
-      <c r="D205" s="71"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="62"/>
+      <c r="A205" s="58"/>
+      <c r="B205" s="63"/>
+      <c r="C205" s="70"/>
+      <c r="D205" s="70"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="61"/>
     </row>
     <row r="206" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="59"/>
-      <c r="B206" s="64"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="71"/>
-      <c r="E206" s="61"/>
-      <c r="F206" s="62"/>
+      <c r="A206" s="58"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="70"/>
+      <c r="D206" s="70"/>
+      <c r="E206" s="60"/>
+      <c r="F206" s="61"/>
     </row>
     <row r="207" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="59"/>
-      <c r="B207" s="64"/>
-      <c r="C207" s="71"/>
-      <c r="D207" s="71"/>
-      <c r="E207" s="61"/>
-      <c r="F207" s="62"/>
+      <c r="A207" s="58"/>
+      <c r="B207" s="63"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="60"/>
+      <c r="F207" s="61"/>
     </row>
     <row r="208" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="59"/>
-      <c r="B208" s="64"/>
-      <c r="C208" s="71"/>
-      <c r="D208" s="71"/>
-      <c r="E208" s="61"/>
-      <c r="F208" s="62"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="60"/>
+      <c r="F208" s="61"/>
     </row>
     <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="59"/>
-      <c r="B209" s="60"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="71"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="62"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="59"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="60"/>
+      <c r="F209" s="61"/>
     </row>
     <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="59"/>
-      <c r="B210" s="60"/>
-      <c r="C210" s="71"/>
-      <c r="D210" s="71"/>
-      <c r="E210" s="61"/>
-      <c r="F210" s="62"/>
+      <c r="A210" s="58"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="70"/>
+      <c r="D210" s="70"/>
+      <c r="E210" s="60"/>
+      <c r="F210" s="61"/>
     </row>
     <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="59"/>
-      <c r="B211" s="60"/>
-      <c r="C211" s="71"/>
-      <c r="D211" s="71"/>
-      <c r="E211" s="61"/>
-      <c r="F211" s="62"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="59"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="61"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="59"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="71"/>
-      <c r="D212" s="71"/>
-      <c r="E212" s="61"/>
-      <c r="F212" s="62"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="61"/>
     </row>
     <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="59"/>
-      <c r="B213" s="60"/>
-      <c r="C213" s="71"/>
-      <c r="D213" s="71"/>
-      <c r="E213" s="61"/>
-      <c r="F213" s="62"/>
+      <c r="A213" s="58"/>
+      <c r="B213" s="59"/>
+      <c r="C213" s="70"/>
+      <c r="D213" s="70"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="61"/>
     </row>
     <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="59"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="71"/>
-      <c r="D214" s="71"/>
-      <c r="E214" s="61"/>
-      <c r="F214" s="62"/>
+      <c r="A214" s="58"/>
+      <c r="B214" s="59"/>
+      <c r="C214" s="70"/>
+      <c r="D214" s="70"/>
+      <c r="E214" s="60"/>
+      <c r="F214" s="61"/>
     </row>
     <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="59"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="71"/>
-      <c r="D215" s="71"/>
-      <c r="E215" s="61"/>
-      <c r="F215" s="62"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="59"/>
+      <c r="C215" s="70"/>
+      <c r="D215" s="70"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="61"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="59"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="71"/>
-      <c r="E216" s="61"/>
-      <c r="F216" s="62"/>
+      <c r="A216" s="58"/>
+      <c r="B216" s="59"/>
+      <c r="C216" s="70"/>
+      <c r="D216" s="70"/>
+      <c r="E216" s="60"/>
+      <c r="F216" s="61"/>
     </row>
     <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="59"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="71"/>
-      <c r="D217" s="71"/>
-      <c r="E217" s="61"/>
-      <c r="F217" s="62"/>
+      <c r="A217" s="58"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="70"/>
+      <c r="D217" s="70"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="61"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="59"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="71"/>
-      <c r="D218" s="71"/>
-      <c r="E218" s="61"/>
-      <c r="F218" s="62"/>
+      <c r="A218" s="58"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="70"/>
+      <c r="D218" s="70"/>
+      <c r="E218" s="60"/>
+      <c r="F218" s="61"/>
     </row>
     <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="59"/>
-      <c r="B219" s="60"/>
-      <c r="C219" s="71"/>
-      <c r="D219" s="71"/>
-      <c r="E219" s="61"/>
-      <c r="F219" s="62"/>
+      <c r="A219" s="58"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="70"/>
+      <c r="D219" s="70"/>
+      <c r="E219" s="60"/>
+      <c r="F219" s="61"/>
     </row>
     <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="59"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="71"/>
-      <c r="D220" s="71"/>
-      <c r="E220" s="61"/>
-      <c r="F220" s="62"/>
+      <c r="A220" s="58"/>
+      <c r="B220" s="59"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="60"/>
+      <c r="F220" s="61"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="59"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="71"/>
-      <c r="D221" s="71"/>
-      <c r="E221" s="61"/>
-      <c r="F221" s="62"/>
+      <c r="A221" s="58"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="70"/>
+      <c r="D221" s="70"/>
+      <c r="E221" s="60"/>
+      <c r="F221" s="61"/>
     </row>
     <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="59"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="71"/>
-      <c r="D222" s="71"/>
-      <c r="E222" s="61"/>
-      <c r="F222" s="62"/>
+      <c r="A222" s="58"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="61"/>
     </row>
     <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="59"/>
-      <c r="B223" s="60"/>
-      <c r="C223" s="71"/>
-      <c r="D223" s="71"/>
-      <c r="E223" s="61"/>
-      <c r="F223" s="62"/>
+      <c r="A223" s="58"/>
+      <c r="B223" s="59"/>
+      <c r="C223" s="70"/>
+      <c r="D223" s="70"/>
+      <c r="E223" s="60"/>
+      <c r="F223" s="61"/>
     </row>
     <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="59"/>
-      <c r="B224" s="60"/>
-      <c r="C224" s="71"/>
-      <c r="D224" s="71"/>
-      <c r="E224" s="61"/>
-      <c r="F224" s="62"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="59"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="70"/>
+      <c r="E224" s="60"/>
+      <c r="F224" s="61"/>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="59"/>
-      <c r="B225" s="60"/>
-      <c r="C225" s="71"/>
-      <c r="D225" s="71"/>
-      <c r="E225" s="61"/>
-      <c r="F225" s="62"/>
+      <c r="A225" s="58"/>
+      <c r="B225" s="59"/>
+      <c r="C225" s="70"/>
+      <c r="D225" s="70"/>
+      <c r="E225" s="60"/>
+      <c r="F225" s="61"/>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="59"/>
-      <c r="B226" s="60"/>
-      <c r="C226" s="71"/>
-      <c r="D226" s="71"/>
-      <c r="E226" s="61"/>
-      <c r="F226" s="62"/>
+      <c r="A226" s="58"/>
+      <c r="B226" s="59"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="70"/>
+      <c r="E226" s="60"/>
+      <c r="F226" s="61"/>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="59"/>
-      <c r="B227" s="60"/>
-      <c r="C227" s="71"/>
-      <c r="D227" s="71"/>
-      <c r="E227" s="61"/>
-      <c r="F227" s="62"/>
+      <c r="A227" s="58"/>
+      <c r="B227" s="59"/>
+      <c r="C227" s="70"/>
+      <c r="D227" s="70"/>
+      <c r="E227" s="60"/>
+      <c r="F227" s="61"/>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="59"/>
-      <c r="B228" s="60"/>
-      <c r="C228" s="71"/>
-      <c r="D228" s="71"/>
-      <c r="E228" s="61"/>
-      <c r="F228" s="62"/>
+      <c r="A228" s="58"/>
+      <c r="B228" s="59"/>
+      <c r="C228" s="70"/>
+      <c r="D228" s="70"/>
+      <c r="E228" s="60"/>
+      <c r="F228" s="61"/>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="59"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="71"/>
-      <c r="D229" s="71"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="62"/>
+      <c r="A229" s="58"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="70"/>
+      <c r="D229" s="70"/>
+      <c r="E229" s="60"/>
+      <c r="F229" s="61"/>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="59"/>
-      <c r="B230" s="60"/>
-      <c r="C230" s="71"/>
-      <c r="D230" s="71"/>
-      <c r="E230" s="61"/>
-      <c r="F230" s="62"/>
+      <c r="A230" s="58"/>
+      <c r="B230" s="59"/>
+      <c r="C230" s="70"/>
+      <c r="D230" s="70"/>
+      <c r="E230" s="60"/>
+      <c r="F230" s="61"/>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
-      <c r="B231" s="60"/>
-      <c r="C231" s="71"/>
-      <c r="D231" s="71"/>
-      <c r="E231" s="61"/>
-      <c r="F231" s="62"/>
+      <c r="A231" s="58"/>
+      <c r="B231" s="59"/>
+      <c r="C231" s="70"/>
+      <c r="D231" s="70"/>
+      <c r="E231" s="60"/>
+      <c r="F231" s="61"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="59"/>
-      <c r="B232" s="60"/>
-      <c r="C232" s="71"/>
-      <c r="D232" s="71"/>
-      <c r="E232" s="61"/>
-      <c r="F232" s="62"/>
+      <c r="A232" s="58"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="70"/>
+      <c r="D232" s="70"/>
+      <c r="E232" s="60"/>
+      <c r="F232" s="61"/>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="59"/>
-      <c r="B233" s="60"/>
-      <c r="C233" s="71"/>
-      <c r="D233" s="71"/>
-      <c r="E233" s="61"/>
-      <c r="F233" s="62"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="59"/>
+      <c r="C233" s="70"/>
+      <c r="D233" s="70"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="61"/>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="59"/>
-      <c r="B234" s="60"/>
-      <c r="C234" s="71"/>
-      <c r="D234" s="71"/>
-      <c r="E234" s="61"/>
-      <c r="F234" s="62"/>
+      <c r="A234" s="58"/>
+      <c r="B234" s="59"/>
+      <c r="C234" s="70"/>
+      <c r="D234" s="70"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="61"/>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="59"/>
-      <c r="B235" s="60"/>
-      <c r="C235" s="71"/>
-      <c r="D235" s="71"/>
-      <c r="E235" s="61"/>
-      <c r="F235" s="62"/>
+      <c r="A235" s="58"/>
+      <c r="B235" s="59"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="60"/>
+      <c r="F235" s="61"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="59"/>
-      <c r="B236" s="60"/>
-      <c r="C236" s="71"/>
-      <c r="D236" s="71"/>
-      <c r="E236" s="61"/>
-      <c r="F236" s="62"/>
+      <c r="A236" s="58"/>
+      <c r="B236" s="59"/>
+      <c r="C236" s="70"/>
+      <c r="D236" s="70"/>
+      <c r="E236" s="60"/>
+      <c r="F236" s="61"/>
     </row>
     <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="59"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="71"/>
-      <c r="D237" s="71"/>
-      <c r="E237" s="61"/>
-      <c r="F237" s="62"/>
+      <c r="A237" s="58"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="70"/>
+      <c r="D237" s="70"/>
+      <c r="E237" s="60"/>
+      <c r="F237" s="61"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="59"/>
-      <c r="B238" s="60"/>
-      <c r="C238" s="71"/>
-      <c r="D238" s="71"/>
-      <c r="E238" s="61"/>
-      <c r="F238" s="62"/>
+      <c r="A238" s="58"/>
+      <c r="B238" s="59"/>
+      <c r="C238" s="70"/>
+      <c r="D238" s="70"/>
+      <c r="E238" s="60"/>
+      <c r="F238" s="61"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="59"/>
-      <c r="B239" s="60"/>
-      <c r="C239" s="71"/>
-      <c r="D239" s="71"/>
-      <c r="E239" s="61"/>
-      <c r="F239" s="62"/>
+      <c r="A239" s="58"/>
+      <c r="B239" s="59"/>
+      <c r="C239" s="70"/>
+      <c r="D239" s="70"/>
+      <c r="E239" s="60"/>
+      <c r="F239" s="61"/>
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="59"/>
-      <c r="B240" s="60"/>
-      <c r="C240" s="71"/>
-      <c r="D240" s="71"/>
-      <c r="E240" s="61"/>
-      <c r="F240" s="62"/>
+      <c r="A240" s="58"/>
+      <c r="B240" s="59"/>
+      <c r="C240" s="70"/>
+      <c r="D240" s="70"/>
+      <c r="E240" s="60"/>
+      <c r="F240" s="61"/>
     </row>
     <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="59"/>
-      <c r="B241" s="60"/>
-      <c r="C241" s="71"/>
-      <c r="D241" s="71"/>
-      <c r="E241" s="61"/>
-      <c r="F241" s="62"/>
+      <c r="A241" s="58"/>
+      <c r="B241" s="59"/>
+      <c r="C241" s="70"/>
+      <c r="D241" s="70"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="61"/>
     </row>
     <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="59"/>
-      <c r="B242" s="60"/>
-      <c r="C242" s="71"/>
-      <c r="D242" s="71"/>
-      <c r="E242" s="61"/>
-      <c r="F242" s="62"/>
+      <c r="A242" s="58"/>
+      <c r="B242" s="59"/>
+      <c r="C242" s="70"/>
+      <c r="D242" s="70"/>
+      <c r="E242" s="60"/>
+      <c r="F242" s="61"/>
     </row>
     <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="59"/>
-      <c r="B243" s="60"/>
-      <c r="C243" s="71"/>
-      <c r="D243" s="71"/>
-      <c r="E243" s="61"/>
-      <c r="F243" s="62"/>
+      <c r="A243" s="58"/>
+      <c r="B243" s="59"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="70"/>
+      <c r="E243" s="60"/>
+      <c r="F243" s="61"/>
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="59"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="71"/>
-      <c r="D244" s="71"/>
-      <c r="E244" s="61"/>
-      <c r="F244" s="62"/>
+      <c r="A244" s="58"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="70"/>
+      <c r="D244" s="70"/>
+      <c r="E244" s="60"/>
+      <c r="F244" s="61"/>
     </row>
     <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="59"/>
-      <c r="B245" s="60"/>
-      <c r="C245" s="71"/>
-      <c r="D245" s="71"/>
-      <c r="E245" s="61"/>
-      <c r="F245" s="62"/>
+      <c r="A245" s="58"/>
+      <c r="B245" s="59"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="70"/>
+      <c r="E245" s="60"/>
+      <c r="F245" s="61"/>
     </row>
     <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="59"/>
-      <c r="B246" s="60"/>
-      <c r="C246" s="71"/>
-      <c r="D246" s="71"/>
-      <c r="E246" s="61"/>
-      <c r="F246" s="62"/>
+      <c r="A246" s="58"/>
+      <c r="B246" s="59"/>
+      <c r="C246" s="70"/>
+      <c r="D246" s="70"/>
+      <c r="E246" s="60"/>
+      <c r="F246" s="61"/>
     </row>
     <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="59"/>
-      <c r="B247" s="60"/>
-      <c r="C247" s="71"/>
-      <c r="D247" s="71"/>
-      <c r="E247" s="61"/>
-      <c r="F247" s="62"/>
+      <c r="A247" s="58"/>
+      <c r="B247" s="59"/>
+      <c r="C247" s="70"/>
+      <c r="D247" s="70"/>
+      <c r="E247" s="60"/>
+      <c r="F247" s="61"/>
     </row>
     <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="59"/>
-      <c r="B248" s="60"/>
-      <c r="C248" s="71"/>
-      <c r="D248" s="71"/>
-      <c r="E248" s="61"/>
-      <c r="F248" s="62"/>
+      <c r="A248" s="58"/>
+      <c r="B248" s="59"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="61"/>
     </row>
     <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="59"/>
-      <c r="B249" s="60"/>
-      <c r="C249" s="71"/>
-      <c r="D249" s="71"/>
-      <c r="E249" s="61"/>
-      <c r="F249" s="62"/>
+      <c r="A249" s="58"/>
+      <c r="B249" s="59"/>
+      <c r="C249" s="70"/>
+      <c r="D249" s="70"/>
+      <c r="E249" s="60"/>
+      <c r="F249" s="61"/>
     </row>
     <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="59"/>
-      <c r="B250" s="60"/>
-      <c r="C250" s="71"/>
-      <c r="D250" s="71"/>
-      <c r="E250" s="61"/>
-      <c r="F250" s="62"/>
+      <c r="A250" s="58"/>
+      <c r="B250" s="59"/>
+      <c r="C250" s="70"/>
+      <c r="D250" s="70"/>
+      <c r="E250" s="60"/>
+      <c r="F250" s="61"/>
     </row>
     <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="59"/>
-      <c r="B251" s="60"/>
-      <c r="C251" s="71"/>
-      <c r="D251" s="71"/>
-      <c r="E251" s="61"/>
-      <c r="F251" s="62"/>
+      <c r="A251" s="58"/>
+      <c r="B251" s="59"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="70"/>
+      <c r="E251" s="60"/>
+      <c r="F251" s="61"/>
     </row>
     <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="59"/>
-      <c r="B252" s="60"/>
-      <c r="C252" s="71"/>
-      <c r="D252" s="71"/>
-      <c r="E252" s="61"/>
-      <c r="F252" s="62"/>
+      <c r="A252" s="58"/>
+      <c r="B252" s="59"/>
+      <c r="C252" s="70"/>
+      <c r="D252" s="70"/>
+      <c r="E252" s="60"/>
+      <c r="F252" s="61"/>
     </row>
     <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="59"/>
-      <c r="B253" s="60"/>
-      <c r="C253" s="71"/>
-      <c r="D253" s="71"/>
-      <c r="E253" s="61"/>
-      <c r="F253" s="62"/>
+      <c r="A253" s="58"/>
+      <c r="B253" s="59"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="70"/>
+      <c r="E253" s="60"/>
+      <c r="F253" s="61"/>
     </row>
     <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="59"/>
-      <c r="B254" s="60"/>
-      <c r="C254" s="71"/>
-      <c r="D254" s="71"/>
-      <c r="E254" s="61"/>
-      <c r="F254" s="62"/>
+      <c r="A254" s="58"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="70"/>
+      <c r="D254" s="70"/>
+      <c r="E254" s="60"/>
+      <c r="F254" s="61"/>
     </row>
     <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="59"/>
-      <c r="B255" s="60"/>
-      <c r="C255" s="71"/>
-      <c r="D255" s="71"/>
-      <c r="E255" s="61"/>
-      <c r="F255" s="62"/>
+      <c r="A255" s="58"/>
+      <c r="B255" s="59"/>
+      <c r="C255" s="70"/>
+      <c r="D255" s="70"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="61"/>
     </row>
     <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="59"/>
-      <c r="B256" s="60"/>
-      <c r="C256" s="71"/>
-      <c r="D256" s="71"/>
-      <c r="E256" s="61"/>
-      <c r="F256" s="62"/>
+      <c r="A256" s="58"/>
+      <c r="B256" s="59"/>
+      <c r="C256" s="70"/>
+      <c r="D256" s="70"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="61"/>
     </row>
     <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="59"/>
-      <c r="B257" s="60"/>
-      <c r="C257" s="71"/>
-      <c r="D257" s="71"/>
-      <c r="E257" s="61"/>
-      <c r="F257" s="62"/>
+      <c r="A257" s="58"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="70"/>
+      <c r="D257" s="70"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="61"/>
     </row>
     <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="59"/>
-      <c r="B258" s="60"/>
-      <c r="C258" s="71"/>
-      <c r="D258" s="71"/>
-      <c r="E258" s="61"/>
-      <c r="F258" s="62"/>
+      <c r="A258" s="58"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="70"/>
+      <c r="D258" s="70"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="61"/>
     </row>
     <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="59"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="71"/>
-      <c r="D259" s="71"/>
-      <c r="E259" s="61"/>
-      <c r="F259" s="62"/>
+      <c r="A259" s="58"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="70"/>
+      <c r="D259" s="70"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="61"/>
     </row>
     <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="59"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="71"/>
-      <c r="D260" s="71"/>
-      <c r="E260" s="61"/>
-      <c r="F260" s="62"/>
+      <c r="A260" s="58"/>
+      <c r="B260" s="59"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="60"/>
+      <c r="F260" s="61"/>
     </row>
     <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="59"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="71"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="61"/>
-      <c r="F261" s="62"/>
+      <c r="A261" s="58"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="60"/>
+      <c r="F261" s="61"/>
     </row>
     <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="59"/>
-      <c r="B262" s="60"/>
-      <c r="C262" s="71"/>
-      <c r="D262" s="71"/>
-      <c r="E262" s="61"/>
-      <c r="F262" s="62"/>
+      <c r="A262" s="58"/>
+      <c r="B262" s="59"/>
+      <c r="C262" s="70"/>
+      <c r="D262" s="70"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="61"/>
     </row>
     <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="59"/>
-      <c r="B263" s="60"/>
-      <c r="C263" s="71"/>
-      <c r="D263" s="71"/>
-      <c r="E263" s="61"/>
-      <c r="F263" s="62"/>
+      <c r="A263" s="58"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="70"/>
+      <c r="D263" s="70"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="61"/>
     </row>
     <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="59"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="71"/>
-      <c r="D264" s="71"/>
-      <c r="E264" s="61"/>
-      <c r="F264" s="62"/>
+      <c r="A264" s="58"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="70"/>
+      <c r="D264" s="70"/>
+      <c r="E264" s="60"/>
+      <c r="F264" s="61"/>
     </row>
     <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="59"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="71"/>
-      <c r="D265" s="71"/>
-      <c r="E265" s="61"/>
-      <c r="F265" s="62"/>
+      <c r="A265" s="58"/>
+      <c r="B265" s="59"/>
+      <c r="C265" s="70"/>
+      <c r="D265" s="70"/>
+      <c r="E265" s="60"/>
+      <c r="F265" s="61"/>
     </row>
     <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="59"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="71"/>
-      <c r="D266" s="71"/>
-      <c r="E266" s="61"/>
-      <c r="F266" s="62"/>
+      <c r="A266" s="58"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="70"/>
+      <c r="D266" s="70"/>
+      <c r="E266" s="60"/>
+      <c r="F266" s="61"/>
     </row>
     <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="59"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="71"/>
-      <c r="D267" s="71"/>
-      <c r="E267" s="61"/>
-      <c r="F267" s="62"/>
+      <c r="A267" s="58"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="70"/>
+      <c r="D267" s="70"/>
+      <c r="E267" s="60"/>
+      <c r="F267" s="61"/>
     </row>
     <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="59"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="71"/>
-      <c r="D268" s="71"/>
-      <c r="E268" s="61"/>
-      <c r="F268" s="62"/>
+      <c r="A268" s="58"/>
+      <c r="B268" s="59"/>
+      <c r="C268" s="70"/>
+      <c r="D268" s="70"/>
+      <c r="E268" s="60"/>
+      <c r="F268" s="61"/>
     </row>
     <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="59"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="71"/>
-      <c r="D269" s="71"/>
-      <c r="E269" s="61"/>
-      <c r="F269" s="62"/>
+      <c r="A269" s="58"/>
+      <c r="B269" s="59"/>
+      <c r="C269" s="70"/>
+      <c r="D269" s="70"/>
+      <c r="E269" s="60"/>
+      <c r="F269" s="61"/>
     </row>
     <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="59"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="71"/>
-      <c r="D270" s="71"/>
-      <c r="E270" s="61"/>
-      <c r="F270" s="62"/>
+      <c r="A270" s="58"/>
+      <c r="B270" s="59"/>
+      <c r="C270" s="70"/>
+      <c r="D270" s="70"/>
+      <c r="E270" s="60"/>
+      <c r="F270" s="61"/>
     </row>
     <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="59"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="71"/>
-      <c r="D271" s="71"/>
-      <c r="E271" s="61"/>
-      <c r="F271" s="62"/>
+      <c r="A271" s="58"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="70"/>
+      <c r="D271" s="70"/>
+      <c r="E271" s="60"/>
+      <c r="F271" s="61"/>
     </row>
     <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="59"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="71"/>
-      <c r="D272" s="71"/>
-      <c r="E272" s="61"/>
-      <c r="F272" s="62"/>
+      <c r="A272" s="58"/>
+      <c r="B272" s="59"/>
+      <c r="C272" s="70"/>
+      <c r="D272" s="70"/>
+      <c r="E272" s="60"/>
+      <c r="F272" s="61"/>
     </row>
     <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="59"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="71"/>
-      <c r="D273" s="71"/>
-      <c r="E273" s="61"/>
-      <c r="F273" s="62"/>
+      <c r="A273" s="58"/>
+      <c r="B273" s="59"/>
+      <c r="C273" s="70"/>
+      <c r="D273" s="70"/>
+      <c r="E273" s="60"/>
+      <c r="F273" s="61"/>
     </row>
     <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="59"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="71"/>
-      <c r="D274" s="71"/>
-      <c r="E274" s="61"/>
-      <c r="F274" s="62"/>
+      <c r="A274" s="58"/>
+      <c r="B274" s="59"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="60"/>
+      <c r="F274" s="61"/>
     </row>
     <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="59"/>
-      <c r="B275" s="60"/>
-      <c r="C275" s="71"/>
-      <c r="D275" s="71"/>
-      <c r="E275" s="61"/>
-      <c r="F275" s="62"/>
+      <c r="A275" s="58"/>
+      <c r="B275" s="59"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="70"/>
+      <c r="E275" s="60"/>
+      <c r="F275" s="61"/>
     </row>
     <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="59"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="71"/>
-      <c r="D276" s="71"/>
-      <c r="E276" s="61"/>
-      <c r="F276" s="62"/>
+      <c r="A276" s="58"/>
+      <c r="B276" s="59"/>
+      <c r="C276" s="70"/>
+      <c r="D276" s="70"/>
+      <c r="E276" s="60"/>
+      <c r="F276" s="61"/>
     </row>
     <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="59"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="71"/>
-      <c r="D277" s="71"/>
-      <c r="E277" s="61"/>
-      <c r="F277" s="62"/>
+      <c r="A277" s="58"/>
+      <c r="B277" s="59"/>
+      <c r="C277" s="70"/>
+      <c r="D277" s="70"/>
+      <c r="E277" s="60"/>
+      <c r="F277" s="61"/>
     </row>
     <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="59"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="71"/>
-      <c r="D278" s="71"/>
-      <c r="E278" s="61"/>
-      <c r="F278" s="62"/>
+      <c r="A278" s="58"/>
+      <c r="B278" s="59"/>
+      <c r="C278" s="70"/>
+      <c r="D278" s="70"/>
+      <c r="E278" s="60"/>
+      <c r="F278" s="61"/>
     </row>
     <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="59"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="71"/>
-      <c r="D279" s="71"/>
-      <c r="E279" s="61"/>
-      <c r="F279" s="62"/>
+      <c r="A279" s="58"/>
+      <c r="B279" s="59"/>
+      <c r="C279" s="70"/>
+      <c r="D279" s="70"/>
+      <c r="E279" s="60"/>
+      <c r="F279" s="61"/>
     </row>
     <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="59"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="71"/>
-      <c r="D280" s="71"/>
-      <c r="E280" s="61"/>
-      <c r="F280" s="62"/>
+      <c r="A280" s="58"/>
+      <c r="B280" s="59"/>
+      <c r="C280" s="70"/>
+      <c r="D280" s="70"/>
+      <c r="E280" s="60"/>
+      <c r="F280" s="61"/>
     </row>
     <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="59"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="71"/>
-      <c r="D281" s="71"/>
-      <c r="E281" s="61"/>
-      <c r="F281" s="62"/>
+      <c r="A281" s="58"/>
+      <c r="B281" s="59"/>
+      <c r="C281" s="70"/>
+      <c r="D281" s="70"/>
+      <c r="E281" s="60"/>
+      <c r="F281" s="61"/>
     </row>
     <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="59"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="71"/>
-      <c r="D282" s="71"/>
-      <c r="E282" s="61"/>
-      <c r="F282" s="62"/>
+      <c r="A282" s="58"/>
+      <c r="B282" s="59"/>
+      <c r="C282" s="70"/>
+      <c r="D282" s="70"/>
+      <c r="E282" s="60"/>
+      <c r="F282" s="61"/>
     </row>
     <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="59"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="71"/>
-      <c r="D283" s="71"/>
-      <c r="E283" s="61"/>
-      <c r="F283" s="62"/>
+      <c r="A283" s="58"/>
+      <c r="B283" s="59"/>
+      <c r="C283" s="70"/>
+      <c r="D283" s="70"/>
+      <c r="E283" s="60"/>
+      <c r="F283" s="61"/>
     </row>
     <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="59"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="71"/>
-      <c r="D284" s="71"/>
-      <c r="E284" s="61"/>
-      <c r="F284" s="62"/>
+      <c r="A284" s="58"/>
+      <c r="B284" s="59"/>
+      <c r="C284" s="70"/>
+      <c r="D284" s="70"/>
+      <c r="E284" s="60"/>
+      <c r="F284" s="61"/>
     </row>
     <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="59"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="71"/>
-      <c r="D285" s="71"/>
-      <c r="E285" s="61"/>
-      <c r="F285" s="62"/>
+      <c r="A285" s="58"/>
+      <c r="B285" s="59"/>
+      <c r="C285" s="70"/>
+      <c r="D285" s="70"/>
+      <c r="E285" s="60"/>
+      <c r="F285" s="61"/>
     </row>
     <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="59"/>
-      <c r="B286" s="60"/>
-      <c r="C286" s="71"/>
-      <c r="D286" s="71"/>
-      <c r="E286" s="61"/>
-      <c r="F286" s="62"/>
+      <c r="A286" s="58"/>
+      <c r="B286" s="59"/>
+      <c r="C286" s="70"/>
+      <c r="D286" s="70"/>
+      <c r="E286" s="60"/>
+      <c r="F286" s="61"/>
     </row>
     <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="59"/>
-      <c r="B287" s="60"/>
-      <c r="C287" s="71"/>
-      <c r="D287" s="71"/>
-      <c r="E287" s="61"/>
-      <c r="F287" s="62"/>
+      <c r="A287" s="58"/>
+      <c r="B287" s="59"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="70"/>
+      <c r="E287" s="60"/>
+      <c r="F287" s="61"/>
     </row>
     <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="59"/>
-      <c r="B288" s="60"/>
-      <c r="C288" s="71"/>
-      <c r="D288" s="71"/>
-      <c r="E288" s="61"/>
-      <c r="F288" s="62"/>
+      <c r="A288" s="58"/>
+      <c r="B288" s="59"/>
+      <c r="C288" s="70"/>
+      <c r="D288" s="70"/>
+      <c r="E288" s="60"/>
+      <c r="F288" s="61"/>
     </row>
     <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="59"/>
-      <c r="B289" s="60"/>
-      <c r="C289" s="71"/>
-      <c r="D289" s="71"/>
-      <c r="E289" s="61"/>
-      <c r="F289" s="62"/>
+      <c r="A289" s="58"/>
+      <c r="B289" s="59"/>
+      <c r="C289" s="70"/>
+      <c r="D289" s="70"/>
+      <c r="E289" s="60"/>
+      <c r="F289" s="61"/>
     </row>
     <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="59"/>
-      <c r="B290" s="60"/>
-      <c r="C290" s="71"/>
-      <c r="D290" s="71"/>
-      <c r="E290" s="61"/>
-      <c r="F290" s="62"/>
+      <c r="A290" s="58"/>
+      <c r="B290" s="59"/>
+      <c r="C290" s="70"/>
+      <c r="D290" s="70"/>
+      <c r="E290" s="60"/>
+      <c r="F290" s="61"/>
     </row>
     <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="59"/>
-      <c r="B291" s="60"/>
-      <c r="C291" s="71"/>
-      <c r="D291" s="71"/>
-      <c r="E291" s="61"/>
-      <c r="F291" s="62"/>
+      <c r="A291" s="58"/>
+      <c r="B291" s="59"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="70"/>
+      <c r="E291" s="60"/>
+      <c r="F291" s="61"/>
     </row>
     <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="59"/>
-      <c r="B292" s="60"/>
-      <c r="C292" s="71"/>
-      <c r="D292" s="71"/>
-      <c r="E292" s="61"/>
-      <c r="F292" s="62"/>
+      <c r="A292" s="58"/>
+      <c r="B292" s="59"/>
+      <c r="C292" s="70"/>
+      <c r="D292" s="70"/>
+      <c r="E292" s="60"/>
+      <c r="F292" s="61"/>
     </row>
     <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="59"/>
-      <c r="B293" s="60"/>
-      <c r="C293" s="71"/>
-      <c r="D293" s="71"/>
-      <c r="E293" s="61"/>
-      <c r="F293" s="62"/>
+      <c r="A293" s="58"/>
+      <c r="B293" s="59"/>
+      <c r="C293" s="70"/>
+      <c r="D293" s="70"/>
+      <c r="E293" s="60"/>
+      <c r="F293" s="61"/>
     </row>
     <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="59"/>
-      <c r="B294" s="60"/>
-      <c r="C294" s="71"/>
-      <c r="D294" s="71"/>
-      <c r="E294" s="61"/>
-      <c r="F294" s="62"/>
+      <c r="A294" s="58"/>
+      <c r="B294" s="59"/>
+      <c r="C294" s="70"/>
+      <c r="D294" s="70"/>
+      <c r="E294" s="60"/>
+      <c r="F294" s="61"/>
     </row>
     <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="59"/>
-      <c r="B295" s="60"/>
-      <c r="C295" s="71"/>
-      <c r="D295" s="71"/>
-      <c r="E295" s="61"/>
-      <c r="F295" s="62"/>
+      <c r="A295" s="58"/>
+      <c r="B295" s="59"/>
+      <c r="C295" s="70"/>
+      <c r="D295" s="70"/>
+      <c r="E295" s="60"/>
+      <c r="F295" s="61"/>
     </row>
     <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="59"/>
-      <c r="B296" s="60"/>
-      <c r="C296" s="71"/>
-      <c r="D296" s="71"/>
-      <c r="E296" s="61"/>
-      <c r="F296" s="62"/>
+      <c r="A296" s="58"/>
+      <c r="B296" s="59"/>
+      <c r="C296" s="70"/>
+      <c r="D296" s="70"/>
+      <c r="E296" s="60"/>
+      <c r="F296" s="61"/>
     </row>
     <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="59"/>
-      <c r="B297" s="60"/>
-      <c r="C297" s="71"/>
-      <c r="D297" s="71"/>
-      <c r="E297" s="61"/>
-      <c r="F297" s="62"/>
+      <c r="A297" s="58"/>
+      <c r="B297" s="59"/>
+      <c r="C297" s="70"/>
+      <c r="D297" s="70"/>
+      <c r="E297" s="60"/>
+      <c r="F297" s="61"/>
     </row>
     <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="59"/>
-      <c r="B298" s="60"/>
-      <c r="C298" s="71"/>
-      <c r="D298" s="71"/>
-      <c r="E298" s="61"/>
-      <c r="F298" s="62"/>
+      <c r="A298" s="58"/>
+      <c r="B298" s="59"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="70"/>
+      <c r="E298" s="60"/>
+      <c r="F298" s="61"/>
     </row>
     <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="59"/>
-      <c r="B299" s="60"/>
-      <c r="C299" s="71"/>
-      <c r="D299" s="71"/>
-      <c r="E299" s="61"/>
-      <c r="F299" s="62"/>
+      <c r="A299" s="58"/>
+      <c r="B299" s="59"/>
+      <c r="C299" s="70"/>
+      <c r="D299" s="70"/>
+      <c r="E299" s="60"/>
+      <c r="F299" s="61"/>
     </row>
     <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="59"/>
-      <c r="B300" s="60"/>
-      <c r="C300" s="71"/>
-      <c r="D300" s="71"/>
-      <c r="E300" s="61"/>
-      <c r="F300" s="62"/>
+      <c r="A300" s="58"/>
+      <c r="B300" s="59"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="60"/>
+      <c r="F300" s="61"/>
     </row>
     <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="59"/>
-      <c r="B301" s="60"/>
-      <c r="C301" s="71"/>
-      <c r="D301" s="71"/>
-      <c r="E301" s="61"/>
-      <c r="F301" s="62"/>
+      <c r="A301" s="58"/>
+      <c r="B301" s="59"/>
+      <c r="C301" s="70"/>
+      <c r="D301" s="70"/>
+      <c r="E301" s="60"/>
+      <c r="F301" s="61"/>
     </row>
     <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="59"/>
-      <c r="B302" s="60"/>
-      <c r="C302" s="71"/>
-      <c r="D302" s="71"/>
-      <c r="E302" s="61"/>
-      <c r="F302" s="62"/>
+      <c r="A302" s="58"/>
+      <c r="B302" s="59"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="70"/>
+      <c r="E302" s="60"/>
+      <c r="F302" s="61"/>
     </row>
     <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="59"/>
-      <c r="B303" s="60"/>
-      <c r="C303" s="71"/>
-      <c r="D303" s="71"/>
-      <c r="E303" s="61"/>
-      <c r="F303" s="62"/>
+      <c r="A303" s="58"/>
+      <c r="B303" s="59"/>
+      <c r="C303" s="70"/>
+      <c r="D303" s="70"/>
+      <c r="E303" s="60"/>
+      <c r="F303" s="61"/>
     </row>
     <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="59"/>
-      <c r="B304" s="60"/>
-      <c r="C304" s="71"/>
-      <c r="D304" s="71"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="62"/>
+      <c r="A304" s="58"/>
+      <c r="B304" s="59"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="70"/>
+      <c r="E304" s="60"/>
+      <c r="F304" s="61"/>
     </row>
     <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="59"/>
-      <c r="B305" s="60"/>
-      <c r="C305" s="71"/>
-      <c r="D305" s="71"/>
-      <c r="E305" s="61"/>
-      <c r="F305" s="62"/>
+      <c r="A305" s="58"/>
+      <c r="B305" s="59"/>
+      <c r="C305" s="70"/>
+      <c r="D305" s="70"/>
+      <c r="E305" s="60"/>
+      <c r="F305" s="61"/>
     </row>
     <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="59"/>
-      <c r="B306" s="60"/>
-      <c r="C306" s="71"/>
-      <c r="D306" s="71"/>
-      <c r="E306" s="61"/>
-      <c r="F306" s="62"/>
+      <c r="A306" s="58"/>
+      <c r="B306" s="59"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="60"/>
+      <c r="F306" s="61"/>
     </row>
     <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="59"/>
-      <c r="B307" s="60"/>
-      <c r="C307" s="71"/>
-      <c r="D307" s="71"/>
-      <c r="E307" s="61"/>
-      <c r="F307" s="62"/>
+      <c r="A307" s="58"/>
+      <c r="B307" s="59"/>
+      <c r="C307" s="70"/>
+      <c r="D307" s="70"/>
+      <c r="E307" s="60"/>
+      <c r="F307" s="61"/>
     </row>
     <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="59"/>
-      <c r="B308" s="60"/>
-      <c r="C308" s="71"/>
-      <c r="D308" s="71"/>
-      <c r="E308" s="61"/>
-      <c r="F308" s="62"/>
+      <c r="A308" s="58"/>
+      <c r="B308" s="59"/>
+      <c r="C308" s="70"/>
+      <c r="D308" s="70"/>
+      <c r="E308" s="60"/>
+      <c r="F308" s="61"/>
     </row>
     <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" s="59"/>
-      <c r="B309" s="60"/>
-      <c r="C309" s="71"/>
-      <c r="D309" s="71"/>
-      <c r="E309" s="61"/>
-      <c r="F309" s="62"/>
+      <c r="A309" s="58"/>
+      <c r="B309" s="59"/>
+      <c r="C309" s="70"/>
+      <c r="D309" s="70"/>
+      <c r="E309" s="60"/>
+      <c r="F309" s="61"/>
     </row>
     <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="59"/>
-      <c r="B310" s="60"/>
-      <c r="C310" s="71"/>
-      <c r="D310" s="71"/>
-      <c r="E310" s="61"/>
-      <c r="F310" s="62"/>
+      <c r="A310" s="58"/>
+      <c r="B310" s="59"/>
+      <c r="C310" s="70"/>
+      <c r="D310" s="70"/>
+      <c r="E310" s="60"/>
+      <c r="F310" s="61"/>
     </row>
     <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="59"/>
-      <c r="B311" s="60"/>
-      <c r="C311" s="71"/>
-      <c r="D311" s="71"/>
-      <c r="E311" s="61"/>
-      <c r="F311" s="62"/>
+      <c r="A311" s="58"/>
+      <c r="B311" s="59"/>
+      <c r="C311" s="70"/>
+      <c r="D311" s="70"/>
+      <c r="E311" s="60"/>
+      <c r="F311" s="61"/>
     </row>
     <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="59"/>
-      <c r="B312" s="60"/>
-      <c r="C312" s="71"/>
-      <c r="D312" s="71"/>
-      <c r="E312" s="61"/>
-      <c r="F312" s="62"/>
+      <c r="A312" s="58"/>
+      <c r="B312" s="59"/>
+      <c r="C312" s="70"/>
+      <c r="D312" s="70"/>
+      <c r="E312" s="60"/>
+      <c r="F312" s="61"/>
     </row>
     <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="59"/>
-      <c r="B313" s="60"/>
-      <c r="C313" s="71"/>
-      <c r="D313" s="71"/>
-      <c r="E313" s="61"/>
-      <c r="F313" s="62"/>
+      <c r="A313" s="58"/>
+      <c r="B313" s="59"/>
+      <c r="C313" s="70"/>
+      <c r="D313" s="70"/>
+      <c r="E313" s="60"/>
+      <c r="F313" s="61"/>
     </row>
     <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="59"/>
-      <c r="B314" s="60"/>
-      <c r="C314" s="71"/>
-      <c r="D314" s="71"/>
-      <c r="E314" s="61"/>
-      <c r="F314" s="62"/>
+      <c r="A314" s="58"/>
+      <c r="B314" s="59"/>
+      <c r="C314" s="70"/>
+      <c r="D314" s="70"/>
+      <c r="E314" s="60"/>
+      <c r="F314" s="61"/>
     </row>
     <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" s="59"/>
-      <c r="B315" s="60"/>
-      <c r="C315" s="71"/>
-      <c r="D315" s="71"/>
-      <c r="E315" s="61"/>
-      <c r="F315" s="62"/>
+      <c r="A315" s="58"/>
+      <c r="B315" s="59"/>
+      <c r="C315" s="70"/>
+      <c r="D315" s="70"/>
+      <c r="E315" s="60"/>
+      <c r="F315" s="61"/>
     </row>
     <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A316" s="59"/>
-      <c r="B316" s="60"/>
-      <c r="C316" s="71"/>
-      <c r="D316" s="71"/>
-      <c r="E316" s="61"/>
-      <c r="F316" s="62"/>
+      <c r="A316" s="58"/>
+      <c r="B316" s="59"/>
+      <c r="C316" s="70"/>
+      <c r="D316" s="70"/>
+      <c r="E316" s="60"/>
+      <c r="F316" s="61"/>
     </row>
     <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="59"/>
-      <c r="B317" s="60"/>
-      <c r="C317" s="71"/>
-      <c r="D317" s="71"/>
-      <c r="E317" s="61"/>
-      <c r="F317" s="62"/>
+      <c r="A317" s="58"/>
+      <c r="B317" s="59"/>
+      <c r="C317" s="70"/>
+      <c r="D317" s="70"/>
+      <c r="E317" s="60"/>
+      <c r="F317" s="61"/>
     </row>
     <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="59"/>
-      <c r="B318" s="60"/>
-      <c r="C318" s="71"/>
-      <c r="D318" s="71"/>
-      <c r="E318" s="61"/>
-      <c r="F318" s="62"/>
+      <c r="A318" s="58"/>
+      <c r="B318" s="59"/>
+      <c r="C318" s="70"/>
+      <c r="D318" s="70"/>
+      <c r="E318" s="60"/>
+      <c r="F318" s="61"/>
     </row>
     <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="59"/>
-      <c r="B319" s="60"/>
-      <c r="C319" s="71"/>
-      <c r="D319" s="71"/>
-      <c r="E319" s="61"/>
-      <c r="F319" s="62"/>
+      <c r="A319" s="58"/>
+      <c r="B319" s="59"/>
+      <c r="C319" s="70"/>
+      <c r="D319" s="70"/>
+      <c r="E319" s="60"/>
+      <c r="F319" s="61"/>
     </row>
     <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="59"/>
-      <c r="B320" s="60"/>
-      <c r="C320" s="71"/>
-      <c r="D320" s="71"/>
-      <c r="E320" s="61"/>
-      <c r="F320" s="62"/>
+      <c r="A320" s="58"/>
+      <c r="B320" s="59"/>
+      <c r="C320" s="70"/>
+      <c r="D320" s="70"/>
+      <c r="E320" s="60"/>
+      <c r="F320" s="61"/>
     </row>
     <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="59"/>
-      <c r="B321" s="60"/>
-      <c r="C321" s="71"/>
-      <c r="D321" s="71"/>
-      <c r="E321" s="61"/>
-      <c r="F321" s="62"/>
+      <c r="A321" s="58"/>
+      <c r="B321" s="59"/>
+      <c r="C321" s="70"/>
+      <c r="D321" s="70"/>
+      <c r="E321" s="60"/>
+      <c r="F321" s="61"/>
     </row>
     <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="59"/>
-      <c r="B322" s="60"/>
-      <c r="C322" s="71"/>
-      <c r="D322" s="71"/>
-      <c r="E322" s="61"/>
-      <c r="F322" s="62"/>
+      <c r="A322" s="58"/>
+      <c r="B322" s="59"/>
+      <c r="C322" s="70"/>
+      <c r="D322" s="70"/>
+      <c r="E322" s="60"/>
+      <c r="F322" s="61"/>
     </row>
     <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="59"/>
-      <c r="B323" s="60"/>
-      <c r="C323" s="71"/>
-      <c r="D323" s="71"/>
-      <c r="E323" s="61"/>
-      <c r="F323" s="62"/>
+      <c r="A323" s="58"/>
+      <c r="B323" s="59"/>
+      <c r="C323" s="70"/>
+      <c r="D323" s="70"/>
+      <c r="E323" s="60"/>
+      <c r="F323" s="61"/>
     </row>
     <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="59"/>
-      <c r="B324" s="60"/>
-      <c r="C324" s="71"/>
-      <c r="D324" s="71"/>
-      <c r="E324" s="61"/>
-      <c r="F324" s="62"/>
+      <c r="A324" s="58"/>
+      <c r="B324" s="59"/>
+      <c r="C324" s="70"/>
+      <c r="D324" s="70"/>
+      <c r="E324" s="60"/>
+      <c r="F324" s="61"/>
     </row>
     <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="59"/>
-      <c r="B325" s="60"/>
-      <c r="C325" s="71"/>
-      <c r="D325" s="71"/>
-      <c r="E325" s="61"/>
-      <c r="F325" s="62"/>
+      <c r="A325" s="58"/>
+      <c r="B325" s="59"/>
+      <c r="C325" s="70"/>
+      <c r="D325" s="70"/>
+      <c r="E325" s="60"/>
+      <c r="F325" s="61"/>
     </row>
     <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="59"/>
-      <c r="B326" s="60"/>
-      <c r="C326" s="71"/>
-      <c r="D326" s="71"/>
-      <c r="E326" s="61"/>
-      <c r="F326" s="62"/>
+      <c r="A326" s="58"/>
+      <c r="B326" s="59"/>
+      <c r="C326" s="70"/>
+      <c r="D326" s="70"/>
+      <c r="E326" s="60"/>
+      <c r="F326" s="61"/>
     </row>
     <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="59"/>
-      <c r="B327" s="60"/>
-      <c r="C327" s="71"/>
-      <c r="D327" s="71"/>
-      <c r="E327" s="61"/>
-      <c r="F327" s="62"/>
+      <c r="A327" s="58"/>
+      <c r="B327" s="59"/>
+      <c r="C327" s="70"/>
+      <c r="D327" s="70"/>
+      <c r="E327" s="60"/>
+      <c r="F327" s="61"/>
     </row>
     <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="59"/>
-      <c r="B328" s="60"/>
-      <c r="C328" s="71"/>
-      <c r="D328" s="71"/>
-      <c r="E328" s="61"/>
-      <c r="F328" s="62"/>
+      <c r="A328" s="58"/>
+      <c r="B328" s="59"/>
+      <c r="C328" s="70"/>
+      <c r="D328" s="70"/>
+      <c r="E328" s="60"/>
+      <c r="F328" s="61"/>
     </row>
     <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="59"/>
-      <c r="B329" s="60"/>
-      <c r="C329" s="71"/>
-      <c r="D329" s="71"/>
-      <c r="E329" s="61"/>
-      <c r="F329" s="62"/>
+      <c r="A329" s="58"/>
+      <c r="B329" s="59"/>
+      <c r="C329" s="70"/>
+      <c r="D329" s="70"/>
+      <c r="E329" s="60"/>
+      <c r="F329" s="61"/>
     </row>
     <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="59"/>
-      <c r="B330" s="60"/>
-      <c r="C330" s="71"/>
-      <c r="D330" s="71"/>
-      <c r="E330" s="61"/>
-      <c r="F330" s="62"/>
+      <c r="A330" s="58"/>
+      <c r="B330" s="59"/>
+      <c r="C330" s="70"/>
+      <c r="D330" s="70"/>
+      <c r="E330" s="60"/>
+      <c r="F330" s="61"/>
     </row>
     <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="59"/>
-      <c r="B331" s="60"/>
-      <c r="C331" s="71"/>
-      <c r="D331" s="71"/>
-      <c r="E331" s="61"/>
-      <c r="F331" s="62"/>
+      <c r="A331" s="58"/>
+      <c r="B331" s="59"/>
+      <c r="C331" s="70"/>
+      <c r="D331" s="70"/>
+      <c r="E331" s="60"/>
+      <c r="F331" s="61"/>
     </row>
     <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="59"/>
-      <c r="B332" s="60"/>
-      <c r="C332" s="71"/>
-      <c r="D332" s="71"/>
-      <c r="E332" s="61"/>
-      <c r="F332" s="62"/>
+      <c r="A332" s="58"/>
+      <c r="B332" s="59"/>
+      <c r="C332" s="70"/>
+      <c r="D332" s="70"/>
+      <c r="E332" s="60"/>
+      <c r="F332" s="61"/>
     </row>
     <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="59"/>
-      <c r="B333" s="60"/>
-      <c r="C333" s="71"/>
-      <c r="D333" s="71"/>
-      <c r="E333" s="61"/>
-      <c r="F333" s="62"/>
+      <c r="A333" s="58"/>
+      <c r="B333" s="59"/>
+      <c r="C333" s="70"/>
+      <c r="D333" s="70"/>
+      <c r="E333" s="60"/>
+      <c r="F333" s="61"/>
     </row>
     <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="59"/>
-      <c r="B334" s="60"/>
-      <c r="C334" s="71"/>
-      <c r="D334" s="71"/>
-      <c r="E334" s="61"/>
-      <c r="F334" s="62"/>
+      <c r="A334" s="58"/>
+      <c r="B334" s="59"/>
+      <c r="C334" s="70"/>
+      <c r="D334" s="70"/>
+      <c r="E334" s="60"/>
+      <c r="F334" s="61"/>
     </row>
     <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="59"/>
-      <c r="B335" s="60"/>
-      <c r="C335" s="71"/>
-      <c r="D335" s="71"/>
-      <c r="E335" s="61"/>
-      <c r="F335" s="62"/>
+      <c r="A335" s="58"/>
+      <c r="B335" s="59"/>
+      <c r="C335" s="70"/>
+      <c r="D335" s="70"/>
+      <c r="E335" s="60"/>
+      <c r="F335" s="61"/>
     </row>
     <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="59"/>
-      <c r="B336" s="60"/>
-      <c r="C336" s="71"/>
-      <c r="D336" s="71"/>
-      <c r="E336" s="61"/>
-      <c r="F336" s="62"/>
+      <c r="A336" s="58"/>
+      <c r="B336" s="59"/>
+      <c r="C336" s="70"/>
+      <c r="D336" s="70"/>
+      <c r="E336" s="60"/>
+      <c r="F336" s="61"/>
     </row>
     <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="59"/>
-      <c r="B337" s="60"/>
-      <c r="C337" s="71"/>
-      <c r="D337" s="71"/>
-      <c r="E337" s="61"/>
-      <c r="F337" s="62"/>
+      <c r="A337" s="58"/>
+      <c r="B337" s="59"/>
+      <c r="C337" s="70"/>
+      <c r="D337" s="70"/>
+      <c r="E337" s="60"/>
+      <c r="F337" s="61"/>
     </row>
     <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="59"/>
-      <c r="B338" s="60"/>
-      <c r="C338" s="71"/>
-      <c r="D338" s="71"/>
-      <c r="E338" s="61"/>
-      <c r="F338" s="62"/>
+      <c r="A338" s="58"/>
+      <c r="B338" s="59"/>
+      <c r="C338" s="70"/>
+      <c r="D338" s="70"/>
+      <c r="E338" s="60"/>
+      <c r="F338" s="61"/>
     </row>
     <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="59"/>
-      <c r="B339" s="60"/>
-      <c r="C339" s="71"/>
-      <c r="D339" s="71"/>
-      <c r="E339" s="61"/>
-      <c r="F339" s="62"/>
+      <c r="A339" s="58"/>
+      <c r="B339" s="59"/>
+      <c r="C339" s="70"/>
+      <c r="D339" s="70"/>
+      <c r="E339" s="60"/>
+      <c r="F339" s="61"/>
     </row>
     <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="59"/>
-      <c r="B340" s="60"/>
-      <c r="C340" s="71"/>
-      <c r="D340" s="71"/>
-      <c r="E340" s="61"/>
-      <c r="F340" s="62"/>
+      <c r="A340" s="58"/>
+      <c r="B340" s="59"/>
+      <c r="C340" s="70"/>
+      <c r="D340" s="70"/>
+      <c r="E340" s="60"/>
+      <c r="F340" s="61"/>
     </row>
     <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="59"/>
-      <c r="B341" s="60"/>
-      <c r="C341" s="71"/>
-      <c r="D341" s="71"/>
-      <c r="E341" s="61"/>
-      <c r="F341" s="62"/>
+      <c r="A341" s="58"/>
+      <c r="B341" s="59"/>
+      <c r="C341" s="70"/>
+      <c r="D341" s="70"/>
+      <c r="E341" s="60"/>
+      <c r="F341" s="61"/>
     </row>
     <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="59"/>
-      <c r="B342" s="60"/>
-      <c r="C342" s="71"/>
-      <c r="D342" s="71"/>
-      <c r="E342" s="61"/>
-      <c r="F342" s="62"/>
+      <c r="A342" s="58"/>
+      <c r="B342" s="59"/>
+      <c r="C342" s="70"/>
+      <c r="D342" s="70"/>
+      <c r="E342" s="60"/>
+      <c r="F342" s="61"/>
     </row>
     <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A343" s="59"/>
-      <c r="B343" s="60"/>
-      <c r="C343" s="71"/>
-      <c r="D343" s="71"/>
-      <c r="E343" s="61"/>
-      <c r="F343" s="62"/>
+      <c r="A343" s="58"/>
+      <c r="B343" s="59"/>
+      <c r="C343" s="70"/>
+      <c r="D343" s="70"/>
+      <c r="E343" s="60"/>
+      <c r="F343" s="61"/>
     </row>
     <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="59"/>
-      <c r="B344" s="60"/>
-      <c r="C344" s="71"/>
-      <c r="D344" s="71"/>
-      <c r="E344" s="61"/>
-      <c r="F344" s="62"/>
+      <c r="A344" s="58"/>
+      <c r="B344" s="59"/>
+      <c r="C344" s="70"/>
+      <c r="D344" s="70"/>
+      <c r="E344" s="60"/>
+      <c r="F344" s="61"/>
     </row>
     <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="59"/>
-      <c r="B345" s="60"/>
-      <c r="C345" s="71"/>
-      <c r="D345" s="71"/>
-      <c r="E345" s="61"/>
-      <c r="F345" s="62"/>
+      <c r="A345" s="58"/>
+      <c r="B345" s="59"/>
+      <c r="C345" s="70"/>
+      <c r="D345" s="70"/>
+      <c r="E345" s="60"/>
+      <c r="F345" s="61"/>
     </row>
     <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A346" s="59"/>
-      <c r="B346" s="60"/>
-      <c r="C346" s="71"/>
-      <c r="D346" s="71"/>
-      <c r="E346" s="61"/>
-      <c r="F346" s="62"/>
+      <c r="A346" s="58"/>
+      <c r="B346" s="59"/>
+      <c r="C346" s="70"/>
+      <c r="D346" s="70"/>
+      <c r="E346" s="60"/>
+      <c r="F346" s="61"/>
     </row>
     <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A347" s="59"/>
-      <c r="B347" s="60"/>
-      <c r="C347" s="71"/>
-      <c r="D347" s="71"/>
-      <c r="E347" s="61"/>
-      <c r="F347" s="62"/>
+      <c r="A347" s="58"/>
+      <c r="B347" s="59"/>
+      <c r="C347" s="70"/>
+      <c r="D347" s="70"/>
+      <c r="E347" s="60"/>
+      <c r="F347" s="61"/>
     </row>
     <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A348" s="59"/>
-      <c r="B348" s="60"/>
-      <c r="C348" s="71"/>
-      <c r="D348" s="71"/>
-      <c r="E348" s="61"/>
-      <c r="F348" s="62"/>
+      <c r="A348" s="58"/>
+      <c r="B348" s="59"/>
+      <c r="C348" s="70"/>
+      <c r="D348" s="70"/>
+      <c r="E348" s="60"/>
+      <c r="F348" s="61"/>
     </row>
     <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A349" s="59"/>
-      <c r="B349" s="60"/>
-      <c r="C349" s="71"/>
-      <c r="D349" s="71"/>
-      <c r="E349" s="61"/>
-      <c r="F349" s="62"/>
+      <c r="A349" s="58"/>
+      <c r="B349" s="59"/>
+      <c r="C349" s="70"/>
+      <c r="D349" s="70"/>
+      <c r="E349" s="60"/>
+      <c r="F349" s="61"/>
     </row>
     <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="59"/>
-      <c r="B350" s="60"/>
-      <c r="C350" s="71"/>
-      <c r="D350" s="71"/>
-      <c r="E350" s="61"/>
-      <c r="F350" s="62"/>
+      <c r="A350" s="58"/>
+      <c r="B350" s="59"/>
+      <c r="C350" s="70"/>
+      <c r="D350" s="70"/>
+      <c r="E350" s="60"/>
+      <c r="F350" s="61"/>
     </row>
     <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A351" s="59"/>
-      <c r="B351" s="60"/>
-      <c r="C351" s="71"/>
-      <c r="D351" s="71"/>
-      <c r="E351" s="61"/>
-      <c r="F351" s="62"/>
+      <c r="A351" s="58"/>
+      <c r="B351" s="59"/>
+      <c r="C351" s="70"/>
+      <c r="D351" s="70"/>
+      <c r="E351" s="60"/>
+      <c r="F351" s="61"/>
     </row>
     <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A352" s="59"/>
-      <c r="B352" s="60"/>
-      <c r="C352" s="71"/>
-      <c r="D352" s="71"/>
-      <c r="E352" s="61"/>
-      <c r="F352" s="62"/>
+      <c r="A352" s="58"/>
+      <c r="B352" s="59"/>
+      <c r="C352" s="70"/>
+      <c r="D352" s="70"/>
+      <c r="E352" s="60"/>
+      <c r="F352" s="61"/>
     </row>
     <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="59"/>
-      <c r="B353" s="60"/>
-      <c r="C353" s="71"/>
-      <c r="D353" s="71"/>
-      <c r="E353" s="61"/>
-      <c r="F353" s="62"/>
+      <c r="A353" s="58"/>
+      <c r="B353" s="59"/>
+      <c r="C353" s="70"/>
+      <c r="D353" s="70"/>
+      <c r="E353" s="60"/>
+      <c r="F353" s="61"/>
     </row>
     <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="59"/>
-      <c r="B354" s="60"/>
-      <c r="C354" s="71"/>
-      <c r="D354" s="71"/>
-      <c r="E354" s="61"/>
-      <c r="F354" s="62"/>
+      <c r="A354" s="58"/>
+      <c r="B354" s="59"/>
+      <c r="C354" s="70"/>
+      <c r="D354" s="70"/>
+      <c r="E354" s="60"/>
+      <c r="F354" s="61"/>
     </row>
     <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="59"/>
-      <c r="B355" s="60"/>
-      <c r="C355" s="71"/>
-      <c r="D355" s="71"/>
-      <c r="E355" s="61"/>
-      <c r="F355" s="62"/>
+      <c r="A355" s="58"/>
+      <c r="B355" s="59"/>
+      <c r="C355" s="70"/>
+      <c r="D355" s="70"/>
+      <c r="E355" s="60"/>
+      <c r="F355" s="61"/>
     </row>
     <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="59"/>
-      <c r="B356" s="60"/>
-      <c r="C356" s="71"/>
-      <c r="D356" s="71"/>
-      <c r="E356" s="61"/>
-      <c r="F356" s="62"/>
+      <c r="A356" s="58"/>
+      <c r="B356" s="59"/>
+      <c r="C356" s="70"/>
+      <c r="D356" s="70"/>
+      <c r="E356" s="60"/>
+      <c r="F356" s="61"/>
     </row>
     <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="59"/>
-      <c r="B357" s="60"/>
-      <c r="C357" s="71"/>
-      <c r="D357" s="71"/>
-      <c r="E357" s="61"/>
-      <c r="F357" s="62"/>
+      <c r="A357" s="58"/>
+      <c r="B357" s="59"/>
+      <c r="C357" s="70"/>
+      <c r="D357" s="70"/>
+      <c r="E357" s="60"/>
+      <c r="F357" s="61"/>
     </row>
     <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="59"/>
-      <c r="B358" s="60"/>
-      <c r="C358" s="71"/>
-      <c r="D358" s="71"/>
-      <c r="E358" s="61"/>
-      <c r="F358" s="62"/>
+      <c r="A358" s="58"/>
+      <c r="B358" s="59"/>
+      <c r="C358" s="70"/>
+      <c r="D358" s="70"/>
+      <c r="E358" s="60"/>
+      <c r="F358" s="61"/>
     </row>
     <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="59"/>
-      <c r="B359" s="60"/>
-      <c r="C359" s="71"/>
-      <c r="D359" s="71"/>
-      <c r="E359" s="61"/>
-      <c r="F359" s="62"/>
+      <c r="A359" s="58"/>
+      <c r="B359" s="59"/>
+      <c r="C359" s="70"/>
+      <c r="D359" s="70"/>
+      <c r="E359" s="60"/>
+      <c r="F359" s="61"/>
     </row>
     <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A360" s="59"/>
-      <c r="B360" s="60"/>
-      <c r="C360" s="71"/>
-      <c r="D360" s="71"/>
-      <c r="E360" s="61"/>
-      <c r="F360" s="62"/>
+      <c r="A360" s="58"/>
+      <c r="B360" s="59"/>
+      <c r="C360" s="70"/>
+      <c r="D360" s="70"/>
+      <c r="E360" s="60"/>
+      <c r="F360" s="61"/>
     </row>
     <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="59"/>
-      <c r="B361" s="60"/>
-      <c r="C361" s="71"/>
-      <c r="D361" s="71"/>
-      <c r="E361" s="61"/>
-      <c r="F361" s="62"/>
+      <c r="A361" s="58"/>
+      <c r="B361" s="59"/>
+      <c r="C361" s="70"/>
+      <c r="D361" s="70"/>
+      <c r="E361" s="60"/>
+      <c r="F361" s="61"/>
     </row>
     <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="59"/>
-      <c r="B362" s="60"/>
-      <c r="C362" s="71"/>
-      <c r="D362" s="71"/>
-      <c r="E362" s="61"/>
-      <c r="F362" s="62"/>
+      <c r="A362" s="58"/>
+      <c r="B362" s="59"/>
+      <c r="C362" s="70"/>
+      <c r="D362" s="70"/>
+      <c r="E362" s="60"/>
+      <c r="F362" s="61"/>
     </row>
     <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A363" s="59"/>
-      <c r="B363" s="60"/>
-      <c r="C363" s="71"/>
-      <c r="D363" s="71"/>
-      <c r="E363" s="61"/>
-      <c r="F363" s="62"/>
+      <c r="A363" s="58"/>
+      <c r="B363" s="59"/>
+      <c r="C363" s="70"/>
+      <c r="D363" s="70"/>
+      <c r="E363" s="60"/>
+      <c r="F363" s="61"/>
     </row>
     <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="59"/>
-      <c r="B364" s="60"/>
-      <c r="C364" s="71"/>
-      <c r="D364" s="71"/>
-      <c r="E364" s="61"/>
-      <c r="F364" s="62"/>
+      <c r="A364" s="58"/>
+      <c r="B364" s="59"/>
+      <c r="C364" s="70"/>
+      <c r="D364" s="70"/>
+      <c r="E364" s="60"/>
+      <c r="F364" s="61"/>
     </row>
     <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="59"/>
-      <c r="B365" s="60"/>
-      <c r="C365" s="71"/>
-      <c r="D365" s="71"/>
-      <c r="E365" s="61"/>
-      <c r="F365" s="62"/>
+      <c r="A365" s="58"/>
+      <c r="B365" s="59"/>
+      <c r="C365" s="70"/>
+      <c r="D365" s="70"/>
+      <c r="E365" s="60"/>
+      <c r="F365" s="61"/>
     </row>
     <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A366" s="59"/>
-      <c r="B366" s="60"/>
-      <c r="C366" s="71"/>
-      <c r="D366" s="71"/>
-      <c r="E366" s="61"/>
-      <c r="F366" s="62"/>
+      <c r="A366" s="58"/>
+      <c r="B366" s="59"/>
+      <c r="C366" s="70"/>
+      <c r="D366" s="70"/>
+      <c r="E366" s="60"/>
+      <c r="F366" s="61"/>
     </row>
     <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A367" s="59"/>
-      <c r="B367" s="60"/>
-      <c r="C367" s="71"/>
-      <c r="D367" s="71"/>
-      <c r="E367" s="61"/>
-      <c r="F367" s="62"/>
+      <c r="A367" s="58"/>
+      <c r="B367" s="59"/>
+      <c r="C367" s="70"/>
+      <c r="D367" s="70"/>
+      <c r="E367" s="60"/>
+      <c r="F367" s="61"/>
     </row>
     <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="59"/>
-      <c r="B368" s="60"/>
-      <c r="C368" s="71"/>
-      <c r="D368" s="71"/>
-      <c r="E368" s="61"/>
-      <c r="F368" s="62"/>
+      <c r="A368" s="58"/>
+      <c r="B368" s="59"/>
+      <c r="C368" s="70"/>
+      <c r="D368" s="70"/>
+      <c r="E368" s="60"/>
+      <c r="F368" s="61"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="65"/>
-      <c r="B369" s="65"/>
-      <c r="C369" s="66"/>
-      <c r="D369" s="66"/>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
+      <c r="A369" s="64"/>
+      <c r="B369" s="64"/>
+      <c r="C369" s="65"/>
+      <c r="D369" s="65"/>
+      <c r="E369" s="64"/>
+      <c r="F369" s="64"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="65"/>
-      <c r="B370" s="65"/>
-      <c r="C370" s="66"/>
-      <c r="D370" s="66"/>
-      <c r="E370" s="65"/>
-      <c r="F370" s="65"/>
+      <c r="A370" s="64"/>
+      <c r="B370" s="64"/>
+      <c r="C370" s="65"/>
+      <c r="D370" s="65"/>
+      <c r="E370" s="64"/>
+      <c r="F370" s="64"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="65"/>
-      <c r="B371" s="65"/>
-      <c r="C371" s="66"/>
-      <c r="D371" s="66"/>
-      <c r="E371" s="65"/>
-      <c r="F371" s="65"/>
+      <c r="A371" s="64"/>
+      <c r="B371" s="64"/>
+      <c r="C371" s="65"/>
+      <c r="D371" s="65"/>
+      <c r="E371" s="64"/>
+      <c r="F371" s="64"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="65"/>
-      <c r="B372" s="65"/>
-      <c r="C372" s="66"/>
-      <c r="D372" s="66"/>
-      <c r="E372" s="65"/>
-      <c r="F372" s="65"/>
+      <c r="A372" s="64"/>
+      <c r="B372" s="64"/>
+      <c r="C372" s="65"/>
+      <c r="D372" s="65"/>
+      <c r="E372" s="64"/>
+      <c r="F372" s="64"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="65"/>
-      <c r="B373" s="65"/>
-      <c r="C373" s="66"/>
-      <c r="D373" s="66"/>
-      <c r="E373" s="65"/>
-      <c r="F373" s="65"/>
+      <c r="A373" s="64"/>
+      <c r="B373" s="64"/>
+      <c r="C373" s="65"/>
+      <c r="D373" s="65"/>
+      <c r="E373" s="64"/>
+      <c r="F373" s="64"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="65"/>
-      <c r="B374" s="65"/>
-      <c r="C374" s="66"/>
-      <c r="D374" s="66"/>
-      <c r="E374" s="65"/>
-      <c r="F374" s="65"/>
+      <c r="A374" s="64"/>
+      <c r="B374" s="64"/>
+      <c r="C374" s="65"/>
+      <c r="D374" s="65"/>
+      <c r="E374" s="64"/>
+      <c r="F374" s="64"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="65"/>
-      <c r="B375" s="65"/>
-      <c r="C375" s="66"/>
-      <c r="D375" s="66"/>
-      <c r="E375" s="65"/>
-      <c r="F375" s="65"/>
+      <c r="A375" s="64"/>
+      <c r="B375" s="64"/>
+      <c r="C375" s="65"/>
+      <c r="D375" s="65"/>
+      <c r="E375" s="64"/>
+      <c r="F375" s="64"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="65"/>
-      <c r="B376" s="65"/>
-      <c r="C376" s="66"/>
-      <c r="D376" s="66"/>
-      <c r="E376" s="65"/>
-      <c r="F376" s="65"/>
+      <c r="A376" s="64"/>
+      <c r="B376" s="64"/>
+      <c r="C376" s="65"/>
+      <c r="D376" s="65"/>
+      <c r="E376" s="64"/>
+      <c r="F376" s="64"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="65"/>
-      <c r="B377" s="65"/>
-      <c r="C377" s="66"/>
-      <c r="D377" s="66"/>
-      <c r="E377" s="65"/>
-      <c r="F377" s="65"/>
+      <c r="A377" s="64"/>
+      <c r="B377" s="64"/>
+      <c r="C377" s="65"/>
+      <c r="D377" s="65"/>
+      <c r="E377" s="64"/>
+      <c r="F377" s="64"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="65"/>
-      <c r="B378" s="65"/>
-      <c r="C378" s="66"/>
-      <c r="D378" s="66"/>
-      <c r="E378" s="65"/>
-      <c r="F378" s="65"/>
+      <c r="A378" s="64"/>
+      <c r="B378" s="64"/>
+      <c r="C378" s="65"/>
+      <c r="D378" s="65"/>
+      <c r="E378" s="64"/>
+      <c r="F378" s="64"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="65"/>
-      <c r="B379" s="65"/>
-      <c r="C379" s="66"/>
-      <c r="D379" s="66"/>
-      <c r="E379" s="65"/>
-      <c r="F379" s="65"/>
+      <c r="A379" s="64"/>
+      <c r="B379" s="64"/>
+      <c r="C379" s="65"/>
+      <c r="D379" s="65"/>
+      <c r="E379" s="64"/>
+      <c r="F379" s="64"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="65"/>
-      <c r="B380" s="65"/>
-      <c r="C380" s="66"/>
-      <c r="D380" s="66"/>
-      <c r="E380" s="65"/>
-      <c r="F380" s="65"/>
+      <c r="A380" s="64"/>
+      <c r="B380" s="64"/>
+      <c r="C380" s="65"/>
+      <c r="D380" s="65"/>
+      <c r="E380" s="64"/>
+      <c r="F380" s="64"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="65"/>
-      <c r="B381" s="65"/>
-      <c r="C381" s="66"/>
-      <c r="D381" s="66"/>
-      <c r="E381" s="65"/>
-      <c r="F381" s="65"/>
+      <c r="A381" s="64"/>
+      <c r="B381" s="64"/>
+      <c r="C381" s="65"/>
+      <c r="D381" s="65"/>
+      <c r="E381" s="64"/>
+      <c r="F381" s="64"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="65"/>
-      <c r="B382" s="65"/>
-      <c r="C382" s="66"/>
-      <c r="D382" s="66"/>
-      <c r="E382" s="65"/>
-      <c r="F382" s="65"/>
+      <c r="A382" s="64"/>
+      <c r="B382" s="64"/>
+      <c r="C382" s="65"/>
+      <c r="D382" s="65"/>
+      <c r="E382" s="64"/>
+      <c r="F382" s="64"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="65"/>
-      <c r="B383" s="65"/>
-      <c r="C383" s="66"/>
-      <c r="D383" s="66"/>
-      <c r="E383" s="65"/>
-      <c r="F383" s="65"/>
+      <c r="A383" s="64"/>
+      <c r="B383" s="64"/>
+      <c r="C383" s="65"/>
+      <c r="D383" s="65"/>
+      <c r="E383" s="64"/>
+      <c r="F383" s="64"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="65"/>
-      <c r="B384" s="65"/>
-      <c r="C384" s="66"/>
-      <c r="D384" s="66"/>
-      <c r="E384" s="65"/>
-      <c r="F384" s="65"/>
+      <c r="A384" s="64"/>
+      <c r="B384" s="64"/>
+      <c r="C384" s="65"/>
+      <c r="D384" s="65"/>
+      <c r="E384" s="64"/>
+      <c r="F384" s="64"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="65"/>
-      <c r="B385" s="65"/>
-      <c r="C385" s="66"/>
-      <c r="D385" s="66"/>
-      <c r="E385" s="65"/>
-      <c r="F385" s="65"/>
+      <c r="A385" s="64"/>
+      <c r="B385" s="64"/>
+      <c r="C385" s="65"/>
+      <c r="D385" s="65"/>
+      <c r="E385" s="64"/>
+      <c r="F385" s="64"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="65"/>
-      <c r="B386" s="65"/>
-      <c r="C386" s="66"/>
-      <c r="D386" s="66"/>
-      <c r="E386" s="65"/>
-      <c r="F386" s="65"/>
+      <c r="A386" s="64"/>
+      <c r="B386" s="64"/>
+      <c r="C386" s="65"/>
+      <c r="D386" s="65"/>
+      <c r="E386" s="64"/>
+      <c r="F386" s="64"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="65"/>
-      <c r="B387" s="65"/>
-      <c r="C387" s="66"/>
-      <c r="D387" s="66"/>
-      <c r="E387" s="65"/>
-      <c r="F387" s="65"/>
+      <c r="A387" s="64"/>
+      <c r="B387" s="64"/>
+      <c r="C387" s="65"/>
+      <c r="D387" s="65"/>
+      <c r="E387" s="64"/>
+      <c r="F387" s="64"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="65"/>
-      <c r="B388" s="65"/>
-      <c r="C388" s="66"/>
-      <c r="D388" s="66"/>
-      <c r="E388" s="65"/>
-      <c r="F388" s="65"/>
+      <c r="A388" s="64"/>
+      <c r="B388" s="64"/>
+      <c r="C388" s="65"/>
+      <c r="D388" s="65"/>
+      <c r="E388" s="64"/>
+      <c r="F388" s="64"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="65"/>
-      <c r="B389" s="65"/>
-      <c r="C389" s="66"/>
-      <c r="D389" s="66"/>
-      <c r="E389" s="65"/>
-      <c r="F389" s="65"/>
+      <c r="A389" s="64"/>
+      <c r="B389" s="64"/>
+      <c r="C389" s="65"/>
+      <c r="D389" s="65"/>
+      <c r="E389" s="64"/>
+      <c r="F389" s="64"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="65"/>
-      <c r="B390" s="65"/>
-      <c r="C390" s="66"/>
-      <c r="D390" s="66"/>
-      <c r="E390" s="65"/>
-      <c r="F390" s="65"/>
+      <c r="A390" s="64"/>
+      <c r="B390" s="64"/>
+      <c r="C390" s="65"/>
+      <c r="D390" s="65"/>
+      <c r="E390" s="64"/>
+      <c r="F390" s="64"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="65"/>
-      <c r="B391" s="65"/>
-      <c r="C391" s="66"/>
-      <c r="D391" s="66"/>
-      <c r="E391" s="65"/>
-      <c r="F391" s="65"/>
+      <c r="A391" s="64"/>
+      <c r="B391" s="64"/>
+      <c r="C391" s="65"/>
+      <c r="D391" s="65"/>
+      <c r="E391" s="64"/>
+      <c r="F391" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A157:F157"/>
     <mergeCell ref="A170:F170"/>
@@ -9055,6 +9046,15 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A104:F104"/>
     <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="F185">
     <cfRule type="colorScale" priority="1">
